--- a/ATL2019Attendance.xlsx
+++ b/ATL2019Attendance.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1bed5c5d495b8be0/Documents/CIS361/RProjectFanAttendance/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="141" documentId="8_{011E9226-80A9-4541-8AEE-65C96BC157EA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{AD0BA971-A3AB-4B08-8B8E-0DF99A830180}"/>
+  <xr:revisionPtr revIDLastSave="238" documentId="8_{011E9226-80A9-4541-8AEE-65C96BC157EA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{2C092622-4572-42F5-A2CB-0D918AF4917E}"/>
   <bookViews>
-    <workbookView xWindow="1716" yWindow="2292" windowWidth="17280" windowHeight="9444" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13152" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ATL2019Attendance" sheetId="1" r:id="rId1"/>
     <sheet name="ATL2018Attendance" sheetId="3" r:id="rId2"/>
-    <sheet name="Code" sheetId="2" r:id="rId3"/>
+    <sheet name="ATL2017Attendance" sheetId="4" r:id="rId3"/>
+    <sheet name="Code" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="983" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1475" uniqueCount="39">
   <si>
     <t>Gm#</t>
   </si>
@@ -136,6 +137,21 @@
   <si>
     <t>NYY</t>
   </si>
+  <si>
+    <t>HOU</t>
+  </si>
+  <si>
+    <t>LAA</t>
+  </si>
+  <si>
+    <t>OAK</t>
+  </si>
+  <si>
+    <t>SEA</t>
+  </si>
+  <si>
+    <t>TEX</t>
+  </si>
 </sst>
 </file>
 
@@ -143,7 +159,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="168" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
@@ -623,12 +639,13 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -985,10 +1002,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G162"/>
+  <dimension ref="A1:G163"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView topLeftCell="A135" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -1047,7 +1064,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="3">
-        <v>43553</v>
+        <v>43554</v>
       </c>
       <c r="C3" t="s">
         <v>5</v>
@@ -1070,7 +1087,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="3">
-        <v>43554</v>
+        <v>43555</v>
       </c>
       <c r="C4" t="s">
         <v>5</v>
@@ -1093,7 +1110,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="3">
-        <v>43555</v>
+        <v>43556</v>
       </c>
       <c r="C5" t="s">
         <v>5</v>
@@ -1116,7 +1133,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="3">
-        <v>43556</v>
+        <v>43558</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -1139,7 +1156,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="3">
-        <v>43557</v>
+        <v>43559</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
@@ -1162,7 +1179,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="3">
-        <v>43558</v>
+        <v>43560</v>
       </c>
       <c r="C8" t="s">
         <v>5</v>
@@ -1185,7 +1202,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="3">
-        <v>43559</v>
+        <v>43561</v>
       </c>
       <c r="C9" t="s">
         <v>5</v>
@@ -1208,7 +1225,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="3">
-        <v>43560</v>
+        <v>43562</v>
       </c>
       <c r="C10" t="s">
         <v>5</v>
@@ -1231,7 +1248,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="3">
-        <v>43561</v>
+        <v>43563</v>
       </c>
       <c r="C11" t="s">
         <v>5</v>
@@ -1254,7 +1271,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="3">
-        <v>43562</v>
+        <v>43564</v>
       </c>
       <c r="C12" t="s">
         <v>5</v>
@@ -1277,7 +1294,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="3">
-        <v>43563</v>
+        <v>43566</v>
       </c>
       <c r="C13" t="s">
         <v>5</v>
@@ -1300,7 +1317,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="3">
-        <v>43564</v>
+        <v>43567</v>
       </c>
       <c r="C14" t="s">
         <v>5</v>
@@ -1323,7 +1340,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="3">
-        <v>43565</v>
+        <v>43568</v>
       </c>
       <c r="C15" t="s">
         <v>5</v>
@@ -1346,7 +1363,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="3">
-        <v>43566</v>
+        <v>43569</v>
       </c>
       <c r="C16" t="s">
         <v>5</v>
@@ -1369,7 +1386,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="3">
-        <v>43567</v>
+        <v>43571</v>
       </c>
       <c r="C17" t="s">
         <v>5</v>
@@ -1392,7 +1409,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="3">
-        <v>43568</v>
+        <v>43572</v>
       </c>
       <c r="C18" t="s">
         <v>5</v>
@@ -1415,7 +1432,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="3">
-        <v>43569</v>
+        <v>43573</v>
       </c>
       <c r="C19" t="s">
         <v>5</v>
@@ -1438,7 +1455,7 @@
         <v>20</v>
       </c>
       <c r="B20" s="3">
-        <v>43570</v>
+        <v>43575</v>
       </c>
       <c r="C20" t="s">
         <v>5</v>
@@ -1461,7 +1478,7 @@
         <v>21</v>
       </c>
       <c r="B21" s="3">
-        <v>43571</v>
+        <v>43575</v>
       </c>
       <c r="C21" t="s">
         <v>5</v>
@@ -1484,7 +1501,7 @@
         <v>22</v>
       </c>
       <c r="B22" s="3">
-        <v>43572</v>
+        <v>43576</v>
       </c>
       <c r="C22" t="s">
         <v>5</v>
@@ -1507,7 +1524,7 @@
         <v>23</v>
       </c>
       <c r="B23" s="3">
-        <v>43573</v>
+        <v>43578</v>
       </c>
       <c r="C23" t="s">
         <v>5</v>
@@ -1530,7 +1547,7 @@
         <v>24</v>
       </c>
       <c r="B24" s="3">
-        <v>43574</v>
+        <v>43579</v>
       </c>
       <c r="C24" t="s">
         <v>5</v>
@@ -1553,7 +1570,7 @@
         <v>25</v>
       </c>
       <c r="B25" s="3">
-        <v>43575</v>
+        <v>43580</v>
       </c>
       <c r="C25" t="s">
         <v>5</v>
@@ -1576,7 +1593,7 @@
         <v>26</v>
       </c>
       <c r="B26" s="3">
-        <v>43576</v>
+        <v>43581</v>
       </c>
       <c r="C26" t="s">
         <v>5</v>
@@ -1599,7 +1616,7 @@
         <v>27</v>
       </c>
       <c r="B27" s="3">
-        <v>43577</v>
+        <v>43582</v>
       </c>
       <c r="C27" t="s">
         <v>5</v>
@@ -1622,7 +1639,7 @@
         <v>28</v>
       </c>
       <c r="B28" s="3">
-        <v>43578</v>
+        <v>43583</v>
       </c>
       <c r="C28" t="s">
         <v>5</v>
@@ -1645,7 +1662,7 @@
         <v>29</v>
       </c>
       <c r="B29" s="3">
-        <v>43579</v>
+        <v>43584</v>
       </c>
       <c r="C29" t="s">
         <v>5</v>
@@ -1668,7 +1685,7 @@
         <v>30</v>
       </c>
       <c r="B30" s="3">
-        <v>43580</v>
+        <v>43585</v>
       </c>
       <c r="C30" t="s">
         <v>5</v>
@@ -1691,7 +1708,7 @@
         <v>31</v>
       </c>
       <c r="B31" s="3">
-        <v>43581</v>
+        <v>43586</v>
       </c>
       <c r="C31" t="s">
         <v>5</v>
@@ -1714,7 +1731,7 @@
         <v>32</v>
       </c>
       <c r="B32" s="3">
-        <v>43582</v>
+        <v>43587</v>
       </c>
       <c r="C32" t="s">
         <v>5</v>
@@ -1737,7 +1754,7 @@
         <v>33</v>
       </c>
       <c r="B33" s="3">
-        <v>43583</v>
+        <v>43588</v>
       </c>
       <c r="C33" t="s">
         <v>5</v>
@@ -1760,7 +1777,7 @@
         <v>34</v>
       </c>
       <c r="B34" s="3">
-        <v>43584</v>
+        <v>43589</v>
       </c>
       <c r="C34" t="s">
         <v>5</v>
@@ -1783,7 +1800,7 @@
         <v>35</v>
       </c>
       <c r="B35" s="3">
-        <v>43585</v>
+        <v>43590</v>
       </c>
       <c r="C35" t="s">
         <v>5</v>
@@ -1806,7 +1823,7 @@
         <v>36</v>
       </c>
       <c r="B36" s="3">
-        <v>43586</v>
+        <v>43591</v>
       </c>
       <c r="C36" t="s">
         <v>5</v>
@@ -1829,7 +1846,7 @@
         <v>37</v>
       </c>
       <c r="B37" s="3">
-        <v>43587</v>
+        <v>43592</v>
       </c>
       <c r="C37" t="s">
         <v>5</v>
@@ -1852,7 +1869,7 @@
         <v>38</v>
       </c>
       <c r="B38" s="3">
-        <v>43588</v>
+        <v>43593</v>
       </c>
       <c r="C38" t="s">
         <v>5</v>
@@ -1875,7 +1892,7 @@
         <v>39</v>
       </c>
       <c r="B39" s="3">
-        <v>43589</v>
+        <v>43594</v>
       </c>
       <c r="C39" t="s">
         <v>5</v>
@@ -1898,7 +1915,7 @@
         <v>40</v>
       </c>
       <c r="B40" s="3">
-        <v>43590</v>
+        <v>43595</v>
       </c>
       <c r="C40" t="s">
         <v>5</v>
@@ -1921,7 +1938,7 @@
         <v>41</v>
       </c>
       <c r="B41" s="3">
-        <v>43591</v>
+        <v>43596</v>
       </c>
       <c r="C41" t="s">
         <v>5</v>
@@ -1944,7 +1961,7 @@
         <v>42</v>
       </c>
       <c r="B42" s="3">
-        <v>43592</v>
+        <v>43597</v>
       </c>
       <c r="C42" t="s">
         <v>5</v>
@@ -1967,7 +1984,7 @@
         <v>43</v>
       </c>
       <c r="B43" s="3">
-        <v>43593</v>
+        <v>43599</v>
       </c>
       <c r="C43" t="s">
         <v>5</v>
@@ -1990,7 +2007,7 @@
         <v>44</v>
       </c>
       <c r="B44" s="3">
-        <v>43594</v>
+        <v>43600</v>
       </c>
       <c r="C44" t="s">
         <v>5</v>
@@ -2013,7 +2030,7 @@
         <v>45</v>
       </c>
       <c r="B45" s="3">
-        <v>43595</v>
+        <v>43601</v>
       </c>
       <c r="C45" t="s">
         <v>5</v>
@@ -2036,7 +2053,7 @@
         <v>46</v>
       </c>
       <c r="B46" s="3">
-        <v>43596</v>
+        <v>43602</v>
       </c>
       <c r="C46" t="s">
         <v>5</v>
@@ -2059,7 +2076,7 @@
         <v>47</v>
       </c>
       <c r="B47" s="3">
-        <v>43597</v>
+        <v>43603</v>
       </c>
       <c r="C47" t="s">
         <v>5</v>
@@ -2082,7 +2099,7 @@
         <v>48</v>
       </c>
       <c r="B48" s="3">
-        <v>43598</v>
+        <v>43604</v>
       </c>
       <c r="C48" t="s">
         <v>5</v>
@@ -2105,7 +2122,7 @@
         <v>49</v>
       </c>
       <c r="B49" s="3">
-        <v>43599</v>
+        <v>43605</v>
       </c>
       <c r="C49" t="s">
         <v>5</v>
@@ -2128,7 +2145,7 @@
         <v>50</v>
       </c>
       <c r="B50" s="3">
-        <v>43600</v>
+        <v>43606</v>
       </c>
       <c r="C50" t="s">
         <v>5</v>
@@ -2151,7 +2168,7 @@
         <v>51</v>
       </c>
       <c r="B51" s="3">
-        <v>43601</v>
+        <v>43607</v>
       </c>
       <c r="C51" t="s">
         <v>5</v>
@@ -2174,7 +2191,7 @@
         <v>52</v>
       </c>
       <c r="B52" s="3">
-        <v>43602</v>
+        <v>43608</v>
       </c>
       <c r="C52" t="s">
         <v>5</v>
@@ -2197,7 +2214,7 @@
         <v>53</v>
       </c>
       <c r="B53" s="3">
-        <v>43603</v>
+        <v>43609</v>
       </c>
       <c r="C53" t="s">
         <v>5</v>
@@ -2220,7 +2237,7 @@
         <v>54</v>
       </c>
       <c r="B54" s="3">
-        <v>43604</v>
+        <v>43610</v>
       </c>
       <c r="C54" t="s">
         <v>5</v>
@@ -2243,7 +2260,7 @@
         <v>55</v>
       </c>
       <c r="B55" s="3">
-        <v>43605</v>
+        <v>43611</v>
       </c>
       <c r="C55" t="s">
         <v>5</v>
@@ -2266,7 +2283,7 @@
         <v>56</v>
       </c>
       <c r="B56" s="3">
-        <v>43606</v>
+        <v>43613</v>
       </c>
       <c r="C56" t="s">
         <v>5</v>
@@ -2289,7 +2306,7 @@
         <v>57</v>
       </c>
       <c r="B57" s="3">
-        <v>43607</v>
+        <v>43614</v>
       </c>
       <c r="C57" t="s">
         <v>5</v>
@@ -2312,7 +2329,7 @@
         <v>58</v>
       </c>
       <c r="B58" s="3">
-        <v>43608</v>
+        <v>43616</v>
       </c>
       <c r="C58" t="s">
         <v>5</v>
@@ -2335,7 +2352,7 @@
         <v>59</v>
       </c>
       <c r="B59" s="3">
-        <v>43609</v>
+        <v>43617</v>
       </c>
       <c r="C59" t="s">
         <v>5</v>
@@ -2358,7 +2375,7 @@
         <v>60</v>
       </c>
       <c r="B60" s="3">
-        <v>43610</v>
+        <v>43618</v>
       </c>
       <c r="C60" t="s">
         <v>5</v>
@@ -2381,7 +2398,7 @@
         <v>61</v>
       </c>
       <c r="B61" s="3">
-        <v>43611</v>
+        <v>43620</v>
       </c>
       <c r="C61" t="s">
         <v>5</v>
@@ -2404,7 +2421,7 @@
         <v>62</v>
       </c>
       <c r="B62" s="3">
-        <v>43612</v>
+        <v>43621</v>
       </c>
       <c r="C62" t="s">
         <v>5</v>
@@ -2427,7 +2444,7 @@
         <v>63</v>
       </c>
       <c r="B63" s="3">
-        <v>43613</v>
+        <v>43622</v>
       </c>
       <c r="C63" t="s">
         <v>5</v>
@@ -2450,7 +2467,7 @@
         <v>64</v>
       </c>
       <c r="B64" s="3">
-        <v>43614</v>
+        <v>43623</v>
       </c>
       <c r="C64" t="s">
         <v>5</v>
@@ -2473,7 +2490,7 @@
         <v>65</v>
       </c>
       <c r="B65" s="3">
-        <v>43615</v>
+        <v>43624</v>
       </c>
       <c r="C65" t="s">
         <v>5</v>
@@ -2496,7 +2513,7 @@
         <v>66</v>
       </c>
       <c r="B66" s="3">
-        <v>43616</v>
+        <v>43625</v>
       </c>
       <c r="C66" t="s">
         <v>5</v>
@@ -2519,7 +2536,7 @@
         <v>67</v>
       </c>
       <c r="B67" s="3">
-        <v>43617</v>
+        <v>43626</v>
       </c>
       <c r="C67" t="s">
         <v>5</v>
@@ -2542,7 +2559,7 @@
         <v>68</v>
       </c>
       <c r="B68" s="3">
-        <v>43618</v>
+        <v>43627</v>
       </c>
       <c r="C68" t="s">
         <v>5</v>
@@ -2565,7 +2582,7 @@
         <v>69</v>
       </c>
       <c r="B69" s="3">
-        <v>43619</v>
+        <v>43628</v>
       </c>
       <c r="C69" t="s">
         <v>5</v>
@@ -2588,7 +2605,7 @@
         <v>70</v>
       </c>
       <c r="B70" s="3">
-        <v>43620</v>
+        <v>43629</v>
       </c>
       <c r="C70" t="s">
         <v>5</v>
@@ -2611,7 +2628,7 @@
         <v>71</v>
       </c>
       <c r="B71" s="3">
-        <v>43621</v>
+        <v>43630</v>
       </c>
       <c r="C71" t="s">
         <v>5</v>
@@ -2634,7 +2651,7 @@
         <v>72</v>
       </c>
       <c r="B72" s="3">
-        <v>43622</v>
+        <v>43631</v>
       </c>
       <c r="C72" t="s">
         <v>5</v>
@@ -2657,7 +2674,7 @@
         <v>73</v>
       </c>
       <c r="B73" s="3">
-        <v>43623</v>
+        <v>43632</v>
       </c>
       <c r="C73" t="s">
         <v>5</v>
@@ -2680,7 +2697,7 @@
         <v>74</v>
       </c>
       <c r="B74" s="3">
-        <v>43624</v>
+        <v>43633</v>
       </c>
       <c r="C74" t="s">
         <v>5</v>
@@ -2703,7 +2720,7 @@
         <v>75</v>
       </c>
       <c r="B75" s="3">
-        <v>43625</v>
+        <v>43634</v>
       </c>
       <c r="C75" t="s">
         <v>5</v>
@@ -2726,7 +2743,7 @@
         <v>76</v>
       </c>
       <c r="B76" s="3">
-        <v>43626</v>
+        <v>43635</v>
       </c>
       <c r="C76" t="s">
         <v>5</v>
@@ -2749,7 +2766,7 @@
         <v>77</v>
       </c>
       <c r="B77" s="3">
-        <v>43627</v>
+        <v>43637</v>
       </c>
       <c r="C77" t="s">
         <v>5</v>
@@ -2772,7 +2789,7 @@
         <v>78</v>
       </c>
       <c r="B78" s="3">
-        <v>43628</v>
+        <v>43638</v>
       </c>
       <c r="C78" t="s">
         <v>5</v>
@@ -2795,7 +2812,7 @@
         <v>79</v>
       </c>
       <c r="B79" s="3">
-        <v>43629</v>
+        <v>43639</v>
       </c>
       <c r="C79" t="s">
         <v>5</v>
@@ -2818,7 +2835,7 @@
         <v>80</v>
       </c>
       <c r="B80" s="3">
-        <v>43630</v>
+        <v>43640</v>
       </c>
       <c r="C80" t="s">
         <v>5</v>
@@ -2841,7 +2858,7 @@
         <v>81</v>
       </c>
       <c r="B81" s="3">
-        <v>43631</v>
+        <v>43641</v>
       </c>
       <c r="C81" t="s">
         <v>5</v>
@@ -2864,7 +2881,7 @@
         <v>82</v>
       </c>
       <c r="B82" s="3">
-        <v>43632</v>
+        <v>43642</v>
       </c>
       <c r="C82" t="s">
         <v>5</v>
@@ -2887,7 +2904,7 @@
         <v>83</v>
       </c>
       <c r="B83" s="3">
-        <v>43633</v>
+        <v>43643</v>
       </c>
       <c r="C83" t="s">
         <v>5</v>
@@ -2910,7 +2927,7 @@
         <v>84</v>
       </c>
       <c r="B84" s="3">
-        <v>43634</v>
+        <v>43644</v>
       </c>
       <c r="C84" t="s">
         <v>5</v>
@@ -2933,7 +2950,7 @@
         <v>85</v>
       </c>
       <c r="B85" s="3">
-        <v>43635</v>
+        <v>43645</v>
       </c>
       <c r="C85" t="s">
         <v>5</v>
@@ -2956,7 +2973,7 @@
         <v>86</v>
       </c>
       <c r="B86" s="3">
-        <v>43636</v>
+        <v>43646</v>
       </c>
       <c r="C86" t="s">
         <v>5</v>
@@ -2979,7 +2996,7 @@
         <v>87</v>
       </c>
       <c r="B87" s="3">
-        <v>43637</v>
+        <v>43648</v>
       </c>
       <c r="C87" t="s">
         <v>5</v>
@@ -3002,7 +3019,7 @@
         <v>88</v>
       </c>
       <c r="B88" s="3">
-        <v>43638</v>
+        <v>43649</v>
       </c>
       <c r="C88" t="s">
         <v>5</v>
@@ -3025,7 +3042,7 @@
         <v>89</v>
       </c>
       <c r="B89" s="3">
-        <v>43639</v>
+        <v>43650</v>
       </c>
       <c r="C89" t="s">
         <v>5</v>
@@ -3048,7 +3065,7 @@
         <v>90</v>
       </c>
       <c r="B90" s="3">
-        <v>43640</v>
+        <v>43651</v>
       </c>
       <c r="C90" t="s">
         <v>5</v>
@@ -3071,7 +3088,7 @@
         <v>91</v>
       </c>
       <c r="B91" s="3">
-        <v>43641</v>
+        <v>43652</v>
       </c>
       <c r="C91" t="s">
         <v>5</v>
@@ -3094,7 +3111,7 @@
         <v>92</v>
       </c>
       <c r="B92" s="3">
-        <v>43642</v>
+        <v>43653</v>
       </c>
       <c r="C92" t="s">
         <v>5</v>
@@ -3117,7 +3134,7 @@
         <v>93</v>
       </c>
       <c r="B93" s="3">
-        <v>43643</v>
+        <v>43658</v>
       </c>
       <c r="C93" t="s">
         <v>5</v>
@@ -3140,7 +3157,7 @@
         <v>94</v>
       </c>
       <c r="B94" s="3">
-        <v>43644</v>
+        <v>43659</v>
       </c>
       <c r="C94" t="s">
         <v>5</v>
@@ -3163,7 +3180,7 @@
         <v>95</v>
       </c>
       <c r="B95" s="3">
-        <v>43645</v>
+        <v>43660</v>
       </c>
       <c r="C95" t="s">
         <v>5</v>
@@ -3186,7 +3203,7 @@
         <v>96</v>
       </c>
       <c r="B96" s="3">
-        <v>43646</v>
+        <v>43661</v>
       </c>
       <c r="C96" t="s">
         <v>5</v>
@@ -3209,7 +3226,7 @@
         <v>97</v>
       </c>
       <c r="B97" s="3">
-        <v>43647</v>
+        <v>43662</v>
       </c>
       <c r="C97" t="s">
         <v>5</v>
@@ -3232,7 +3249,7 @@
         <v>98</v>
       </c>
       <c r="B98" s="3">
-        <v>43648</v>
+        <v>43663</v>
       </c>
       <c r="C98" t="s">
         <v>5</v>
@@ -3255,7 +3272,7 @@
         <v>99</v>
       </c>
       <c r="B99" s="3">
-        <v>43649</v>
+        <v>43664</v>
       </c>
       <c r="C99" t="s">
         <v>5</v>
@@ -3278,7 +3295,7 @@
         <v>100</v>
       </c>
       <c r="B100" s="3">
-        <v>43650</v>
+        <v>43665</v>
       </c>
       <c r="C100" t="s">
         <v>5</v>
@@ -3301,7 +3318,7 @@
         <v>101</v>
       </c>
       <c r="B101" s="3">
-        <v>43651</v>
+        <v>43666</v>
       </c>
       <c r="C101" t="s">
         <v>5</v>
@@ -3324,7 +3341,7 @@
         <v>102</v>
       </c>
       <c r="B102" s="3">
-        <v>43652</v>
+        <v>43667</v>
       </c>
       <c r="C102" t="s">
         <v>5</v>
@@ -3347,7 +3364,7 @@
         <v>103</v>
       </c>
       <c r="B103" s="3">
-        <v>43653</v>
+        <v>43669</v>
       </c>
       <c r="C103" t="s">
         <v>5</v>
@@ -3370,7 +3387,7 @@
         <v>104</v>
       </c>
       <c r="B104" s="3">
-        <v>43654</v>
+        <v>43670</v>
       </c>
       <c r="C104" t="s">
         <v>5</v>
@@ -3393,7 +3410,7 @@
         <v>105</v>
       </c>
       <c r="B105" s="3">
-        <v>43655</v>
+        <v>43672</v>
       </c>
       <c r="C105" t="s">
         <v>5</v>
@@ -3416,7 +3433,7 @@
         <v>106</v>
       </c>
       <c r="B106" s="3">
-        <v>43656</v>
+        <v>43673</v>
       </c>
       <c r="C106" t="s">
         <v>5</v>
@@ -3439,7 +3456,7 @@
         <v>107</v>
       </c>
       <c r="B107" s="3">
-        <v>43657</v>
+        <v>43674</v>
       </c>
       <c r="C107" t="s">
         <v>5</v>
@@ -3462,7 +3479,7 @@
         <v>108</v>
       </c>
       <c r="B108" s="3">
-        <v>43658</v>
+        <v>43675</v>
       </c>
       <c r="C108" t="s">
         <v>5</v>
@@ -3485,7 +3502,7 @@
         <v>109</v>
       </c>
       <c r="B109" s="3">
-        <v>43659</v>
+        <v>43676</v>
       </c>
       <c r="C109" t="s">
         <v>5</v>
@@ -3508,7 +3525,7 @@
         <v>110</v>
       </c>
       <c r="B110" s="3">
-        <v>43660</v>
+        <v>43677</v>
       </c>
       <c r="C110" t="s">
         <v>5</v>
@@ -3531,7 +3548,7 @@
         <v>111</v>
       </c>
       <c r="B111" s="3">
-        <v>43661</v>
+        <v>43678</v>
       </c>
       <c r="C111" t="s">
         <v>5</v>
@@ -3554,7 +3571,7 @@
         <v>112</v>
       </c>
       <c r="B112" s="3">
-        <v>43662</v>
+        <v>43679</v>
       </c>
       <c r="C112" t="s">
         <v>5</v>
@@ -3577,7 +3594,7 @@
         <v>113</v>
       </c>
       <c r="B113" s="3">
-        <v>43663</v>
+        <v>43680</v>
       </c>
       <c r="C113" t="s">
         <v>5</v>
@@ -3600,7 +3617,7 @@
         <v>114</v>
       </c>
       <c r="B114" s="3">
-        <v>43664</v>
+        <v>43681</v>
       </c>
       <c r="C114" t="s">
         <v>5</v>
@@ -3623,7 +3640,7 @@
         <v>115</v>
       </c>
       <c r="B115" s="3">
-        <v>43665</v>
+        <v>43682</v>
       </c>
       <c r="C115" t="s">
         <v>5</v>
@@ -3646,7 +3663,7 @@
         <v>116</v>
       </c>
       <c r="B116" s="3">
-        <v>43666</v>
+        <v>43683</v>
       </c>
       <c r="C116" t="s">
         <v>5</v>
@@ -3669,7 +3686,7 @@
         <v>117</v>
       </c>
       <c r="B117" s="3">
-        <v>43667</v>
+        <v>43684</v>
       </c>
       <c r="C117" t="s">
         <v>5</v>
@@ -3692,7 +3709,7 @@
         <v>118</v>
       </c>
       <c r="B118" s="3">
-        <v>43668</v>
+        <v>43685</v>
       </c>
       <c r="C118" t="s">
         <v>5</v>
@@ -3715,7 +3732,7 @@
         <v>119</v>
       </c>
       <c r="B119" s="3">
-        <v>43669</v>
+        <v>43686</v>
       </c>
       <c r="C119" t="s">
         <v>5</v>
@@ -3738,7 +3755,7 @@
         <v>120</v>
       </c>
       <c r="B120" s="3">
-        <v>43670</v>
+        <v>43687</v>
       </c>
       <c r="C120" t="s">
         <v>5</v>
@@ -3761,7 +3778,7 @@
         <v>121</v>
       </c>
       <c r="B121" s="3">
-        <v>43671</v>
+        <v>43688</v>
       </c>
       <c r="C121" t="s">
         <v>5</v>
@@ -3784,7 +3801,7 @@
         <v>122</v>
       </c>
       <c r="B122" s="3">
-        <v>43672</v>
+        <v>43690</v>
       </c>
       <c r="C122" t="s">
         <v>5</v>
@@ -3807,7 +3824,7 @@
         <v>123</v>
       </c>
       <c r="B123" s="3">
-        <v>43673</v>
+        <v>43691</v>
       </c>
       <c r="C123" t="s">
         <v>5</v>
@@ -3830,7 +3847,7 @@
         <v>124</v>
       </c>
       <c r="B124" s="3">
-        <v>43674</v>
+        <v>43692</v>
       </c>
       <c r="C124" t="s">
         <v>5</v>
@@ -3853,7 +3870,7 @@
         <v>125</v>
       </c>
       <c r="B125" s="3">
-        <v>43675</v>
+        <v>43693</v>
       </c>
       <c r="C125" t="s">
         <v>5</v>
@@ -3876,7 +3893,7 @@
         <v>126</v>
       </c>
       <c r="B126" s="3">
-        <v>43676</v>
+        <v>43694</v>
       </c>
       <c r="C126" t="s">
         <v>5</v>
@@ -3899,7 +3916,7 @@
         <v>127</v>
       </c>
       <c r="B127" s="3">
-        <v>43677</v>
+        <v>43695</v>
       </c>
       <c r="C127" t="s">
         <v>5</v>
@@ -3922,7 +3939,7 @@
         <v>128</v>
       </c>
       <c r="B128" s="3">
-        <v>43678</v>
+        <v>43697</v>
       </c>
       <c r="C128" t="s">
         <v>5</v>
@@ -3945,7 +3962,7 @@
         <v>129</v>
       </c>
       <c r="B129" s="3">
-        <v>43679</v>
+        <v>43698</v>
       </c>
       <c r="C129" t="s">
         <v>5</v>
@@ -3968,7 +3985,7 @@
         <v>130</v>
       </c>
       <c r="B130" s="3">
-        <v>43680</v>
+        <v>43699</v>
       </c>
       <c r="C130" t="s">
         <v>5</v>
@@ -3991,7 +4008,7 @@
         <v>131</v>
       </c>
       <c r="B131" s="3">
-        <v>43681</v>
+        <v>43700</v>
       </c>
       <c r="C131" t="s">
         <v>5</v>
@@ -4014,7 +4031,7 @@
         <v>132</v>
       </c>
       <c r="B132" s="3">
-        <v>43682</v>
+        <v>43701</v>
       </c>
       <c r="C132" t="s">
         <v>5</v>
@@ -4037,7 +4054,7 @@
         <v>133</v>
       </c>
       <c r="B133" s="3">
-        <v>43683</v>
+        <v>43702</v>
       </c>
       <c r="C133" t="s">
         <v>5</v>
@@ -4060,7 +4077,7 @@
         <v>134</v>
       </c>
       <c r="B134" s="3">
-        <v>43684</v>
+        <v>43703</v>
       </c>
       <c r="C134" t="s">
         <v>5</v>
@@ -4083,7 +4100,7 @@
         <v>135</v>
       </c>
       <c r="B135" s="3">
-        <v>43685</v>
+        <v>43704</v>
       </c>
       <c r="C135" t="s">
         <v>5</v>
@@ -4106,7 +4123,7 @@
         <v>136</v>
       </c>
       <c r="B136" s="3">
-        <v>43686</v>
+        <v>43705</v>
       </c>
       <c r="C136" t="s">
         <v>5</v>
@@ -4129,7 +4146,7 @@
         <v>137</v>
       </c>
       <c r="B137" s="3">
-        <v>43687</v>
+        <v>43707</v>
       </c>
       <c r="C137" t="s">
         <v>5</v>
@@ -4152,7 +4169,7 @@
         <v>138</v>
       </c>
       <c r="B138" s="3">
-        <v>43688</v>
+        <v>43708</v>
       </c>
       <c r="C138" t="s">
         <v>5</v>
@@ -4175,7 +4192,7 @@
         <v>139</v>
       </c>
       <c r="B139" s="3">
-        <v>43689</v>
+        <v>43709</v>
       </c>
       <c r="C139" t="s">
         <v>5</v>
@@ -4198,7 +4215,7 @@
         <v>140</v>
       </c>
       <c r="B140" s="3">
-        <v>43690</v>
+        <v>43710</v>
       </c>
       <c r="C140" t="s">
         <v>5</v>
@@ -4221,7 +4238,7 @@
         <v>141</v>
       </c>
       <c r="B141" s="3">
-        <v>43691</v>
+        <v>43711</v>
       </c>
       <c r="C141" t="s">
         <v>5</v>
@@ -4244,7 +4261,7 @@
         <v>142</v>
       </c>
       <c r="B142" s="3">
-        <v>43692</v>
+        <v>43713</v>
       </c>
       <c r="C142" t="s">
         <v>5</v>
@@ -4267,7 +4284,7 @@
         <v>143</v>
       </c>
       <c r="B143" s="3">
-        <v>43693</v>
+        <v>43714</v>
       </c>
       <c r="C143" t="s">
         <v>5</v>
@@ -4290,7 +4307,7 @@
         <v>144</v>
       </c>
       <c r="B144" s="3">
-        <v>43694</v>
+        <v>43715</v>
       </c>
       <c r="C144" t="s">
         <v>5</v>
@@ -4313,7 +4330,7 @@
         <v>145</v>
       </c>
       <c r="B145" s="3">
-        <v>43695</v>
+        <v>43716</v>
       </c>
       <c r="C145" t="s">
         <v>5</v>
@@ -4336,7 +4353,7 @@
         <v>146</v>
       </c>
       <c r="B146" s="3">
-        <v>43696</v>
+        <v>43717</v>
       </c>
       <c r="C146" t="s">
         <v>5</v>
@@ -4359,7 +4376,7 @@
         <v>147</v>
       </c>
       <c r="B147" s="3">
-        <v>43697</v>
+        <v>43718</v>
       </c>
       <c r="C147" t="s">
         <v>5</v>
@@ -4382,7 +4399,7 @@
         <v>148</v>
       </c>
       <c r="B148" s="3">
-        <v>43698</v>
+        <v>43719</v>
       </c>
       <c r="C148" t="s">
         <v>5</v>
@@ -4405,7 +4422,7 @@
         <v>149</v>
       </c>
       <c r="B149" s="3">
-        <v>43699</v>
+        <v>43720</v>
       </c>
       <c r="C149" t="s">
         <v>5</v>
@@ -4428,7 +4445,7 @@
         <v>150</v>
       </c>
       <c r="B150" s="3">
-        <v>43700</v>
+        <v>43721</v>
       </c>
       <c r="C150" t="s">
         <v>5</v>
@@ -4451,7 +4468,7 @@
         <v>151</v>
       </c>
       <c r="B151" s="3">
-        <v>43701</v>
+        <v>43722</v>
       </c>
       <c r="C151" t="s">
         <v>5</v>
@@ -4474,7 +4491,7 @@
         <v>152</v>
       </c>
       <c r="B152" s="3">
-        <v>43702</v>
+        <v>43723</v>
       </c>
       <c r="C152" t="s">
         <v>5</v>
@@ -4497,7 +4514,7 @@
         <v>153</v>
       </c>
       <c r="B153" s="3">
-        <v>43703</v>
+        <v>43725</v>
       </c>
       <c r="C153" t="s">
         <v>5</v>
@@ -4520,7 +4537,7 @@
         <v>154</v>
       </c>
       <c r="B154" s="3">
-        <v>43704</v>
+        <v>43726</v>
       </c>
       <c r="C154" t="s">
         <v>5</v>
@@ -4543,7 +4560,7 @@
         <v>155</v>
       </c>
       <c r="B155" s="3">
-        <v>43705</v>
+        <v>43727</v>
       </c>
       <c r="C155" t="s">
         <v>5</v>
@@ -4566,7 +4583,7 @@
         <v>156</v>
       </c>
       <c r="B156" s="3">
-        <v>43706</v>
+        <v>43728</v>
       </c>
       <c r="C156" t="s">
         <v>5</v>
@@ -4589,7 +4606,7 @@
         <v>157</v>
       </c>
       <c r="B157" s="3">
-        <v>43707</v>
+        <v>43729</v>
       </c>
       <c r="C157" t="s">
         <v>5</v>
@@ -4612,7 +4629,7 @@
         <v>158</v>
       </c>
       <c r="B158" s="3">
-        <v>43708</v>
+        <v>43730</v>
       </c>
       <c r="C158" t="s">
         <v>5</v>
@@ -4635,7 +4652,7 @@
         <v>159</v>
       </c>
       <c r="B159" s="3">
-        <v>43709</v>
+        <v>43732</v>
       </c>
       <c r="C159" t="s">
         <v>5</v>
@@ -4658,7 +4675,7 @@
         <v>160</v>
       </c>
       <c r="B160" s="3">
-        <v>43710</v>
+        <v>43733</v>
       </c>
       <c r="C160" t="s">
         <v>5</v>
@@ -4681,7 +4698,7 @@
         <v>161</v>
       </c>
       <c r="B161" s="3">
-        <v>43711</v>
+        <v>43735</v>
       </c>
       <c r="C161" t="s">
         <v>5</v>
@@ -4704,7 +4721,7 @@
         <v>162</v>
       </c>
       <c r="B162" s="3">
-        <v>43712</v>
+        <v>43736</v>
       </c>
       <c r="C162" t="s">
         <v>5</v>
@@ -4721,6 +4738,9 @@
       <c r="G162" s="1">
         <v>31523</v>
       </c>
+    </row>
+    <row r="163" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B163" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4731,8 +4751,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41C910D3-9F8A-45C9-83B2-A21D7A924A14}">
   <dimension ref="A1:G163"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I70" sqref="I70"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -4836,7 +4856,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="3">
-        <v>43191</v>
+        <v>43192</v>
       </c>
       <c r="C5" t="s">
         <v>5</v>
@@ -4859,7 +4879,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="3">
-        <v>43192</v>
+        <v>43193</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -4882,7 +4902,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="3">
-        <v>43193</v>
+        <v>43194</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
@@ -4905,7 +4925,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="3">
-        <v>43194</v>
+        <v>43196</v>
       </c>
       <c r="C8" t="s">
         <v>5</v>
@@ -4928,7 +4948,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="3">
-        <v>43195</v>
+        <v>43197</v>
       </c>
       <c r="C9" t="s">
         <v>5</v>
@@ -4951,7 +4971,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="3">
-        <v>43196</v>
+        <v>43198</v>
       </c>
       <c r="C10" t="s">
         <v>5</v>
@@ -4974,7 +4994,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="3">
-        <v>43197</v>
+        <v>43199</v>
       </c>
       <c r="C11" t="s">
         <v>5</v>
@@ -4997,7 +5017,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="3">
-        <v>43198</v>
+        <v>43200</v>
       </c>
       <c r="C12" t="s">
         <v>5</v>
@@ -5020,7 +5040,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="3">
-        <v>43199</v>
+        <v>43201</v>
       </c>
       <c r="C13" t="s">
         <v>5</v>
@@ -5043,7 +5063,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="3">
-        <v>43200</v>
+        <v>43203</v>
       </c>
       <c r="C14" t="s">
         <v>5</v>
@@ -5066,7 +5086,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="3">
-        <v>43201</v>
+        <v>43204</v>
       </c>
       <c r="C15" t="s">
         <v>5</v>
@@ -5089,7 +5109,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="3">
-        <v>43202</v>
+        <v>43206</v>
       </c>
       <c r="C16" t="s">
         <v>5</v>
@@ -5112,7 +5132,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="3">
-        <v>43203</v>
+        <v>43207</v>
       </c>
       <c r="C17" t="s">
         <v>5</v>
@@ -5135,7 +5155,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="3">
-        <v>43204</v>
+        <v>43208</v>
       </c>
       <c r="C18" t="s">
         <v>5</v>
@@ -5158,7 +5178,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="3">
-        <v>43205</v>
+        <v>43209</v>
       </c>
       <c r="C19" t="s">
         <v>5</v>
@@ -5181,7 +5201,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="3">
-        <v>43206</v>
+        <v>43210</v>
       </c>
       <c r="C20" t="s">
         <v>5</v>
@@ -5204,7 +5224,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="3">
-        <v>43207</v>
+        <v>43211</v>
       </c>
       <c r="C21" t="s">
         <v>5</v>
@@ -5227,7 +5247,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="3">
-        <v>43208</v>
+        <v>43213</v>
       </c>
       <c r="C22" t="s">
         <v>5</v>
@@ -5250,7 +5270,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="3">
-        <v>43209</v>
+        <v>43214</v>
       </c>
       <c r="C23" t="s">
         <v>5</v>
@@ -5273,7 +5293,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="3">
-        <v>43210</v>
+        <v>43215</v>
       </c>
       <c r="C24" t="s">
         <v>5</v>
@@ -5296,7 +5316,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="3">
-        <v>43211</v>
+        <v>43216</v>
       </c>
       <c r="C25" t="s">
         <v>5</v>
@@ -5319,7 +5339,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="3">
-        <v>43212</v>
+        <v>43217</v>
       </c>
       <c r="C26" t="s">
         <v>5</v>
@@ -5342,7 +5362,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="3">
-        <v>43213</v>
+        <v>43218</v>
       </c>
       <c r="C27" t="s">
         <v>5</v>
@@ -5365,7 +5385,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="3">
-        <v>43214</v>
+        <v>43219</v>
       </c>
       <c r="C28" t="s">
         <v>5</v>
@@ -5388,7 +5408,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="3">
-        <v>43215</v>
+        <v>43221</v>
       </c>
       <c r="C29" t="s">
         <v>5</v>
@@ -5411,7 +5431,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="3">
-        <v>43216</v>
+        <v>43222</v>
       </c>
       <c r="C30" t="s">
         <v>5</v>
@@ -5434,7 +5454,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="3">
-        <v>43217</v>
+        <v>43223</v>
       </c>
       <c r="C31" t="s">
         <v>5</v>
@@ -5457,7 +5477,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="3">
-        <v>43218</v>
+        <v>43224</v>
       </c>
       <c r="C32" t="s">
         <v>5</v>
@@ -5480,7 +5500,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="3">
-        <v>43219</v>
+        <v>43225</v>
       </c>
       <c r="C33" t="s">
         <v>5</v>
@@ -5503,7 +5523,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="3">
-        <v>43220</v>
+        <v>43226</v>
       </c>
       <c r="C34" t="s">
         <v>5</v>
@@ -5526,7 +5546,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="3">
-        <v>43221</v>
+        <v>43228</v>
       </c>
       <c r="C35" t="s">
         <v>5</v>
@@ -5549,7 +5569,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="3">
-        <v>43222</v>
+        <v>43229</v>
       </c>
       <c r="C36" t="s">
         <v>5</v>
@@ -5572,7 +5592,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="3">
-        <v>43223</v>
+        <v>43230</v>
       </c>
       <c r="C37" t="s">
         <v>5</v>
@@ -5595,7 +5615,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="3">
-        <v>43224</v>
+        <v>43231</v>
       </c>
       <c r="C38" t="s">
         <v>5</v>
@@ -5618,7 +5638,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="3">
-        <v>43225</v>
+        <v>43232</v>
       </c>
       <c r="C39" t="s">
         <v>5</v>
@@ -5641,7 +5661,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="3">
-        <v>43226</v>
+        <v>43233</v>
       </c>
       <c r="C40" t="s">
         <v>5</v>
@@ -5664,7 +5684,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="3">
-        <v>43227</v>
+        <v>43234</v>
       </c>
       <c r="C41" t="s">
         <v>5</v>
@@ -5687,7 +5707,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="3">
-        <v>43228</v>
+        <v>43235</v>
       </c>
       <c r="C42" t="s">
         <v>5</v>
@@ -5710,7 +5730,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="3">
-        <v>43229</v>
+        <v>43236</v>
       </c>
       <c r="C43" t="s">
         <v>5</v>
@@ -5733,7 +5753,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="3">
-        <v>43230</v>
+        <v>43238</v>
       </c>
       <c r="C44" t="s">
         <v>5</v>
@@ -5756,7 +5776,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="3">
-        <v>43231</v>
+        <v>43239</v>
       </c>
       <c r="C45" t="s">
         <v>5</v>
@@ -5779,7 +5799,7 @@
         <v>45</v>
       </c>
       <c r="B46" s="3">
-        <v>43232</v>
+        <v>43240</v>
       </c>
       <c r="C46" t="s">
         <v>5</v>
@@ -5802,7 +5822,7 @@
         <v>46</v>
       </c>
       <c r="B47" s="3">
-        <v>43233</v>
+        <v>43241</v>
       </c>
       <c r="C47" t="s">
         <v>5</v>
@@ -5825,7 +5845,7 @@
         <v>47</v>
       </c>
       <c r="B48" s="3">
-        <v>43234</v>
+        <v>43242</v>
       </c>
       <c r="C48" t="s">
         <v>5</v>
@@ -5848,7 +5868,7 @@
         <v>48</v>
       </c>
       <c r="B49" s="3">
-        <v>43235</v>
+        <v>43243</v>
       </c>
       <c r="C49" t="s">
         <v>5</v>
@@ -5871,7 +5891,7 @@
         <v>49</v>
       </c>
       <c r="B50" s="3">
-        <v>43236</v>
+        <v>43245</v>
       </c>
       <c r="C50" t="s">
         <v>5</v>
@@ -5894,7 +5914,7 @@
         <v>50</v>
       </c>
       <c r="B51" s="3">
-        <v>43237</v>
+        <v>43246</v>
       </c>
       <c r="C51" t="s">
         <v>5</v>
@@ -5917,7 +5937,7 @@
         <v>51</v>
       </c>
       <c r="B52" s="3">
-        <v>43238</v>
+        <v>43247</v>
       </c>
       <c r="C52" t="s">
         <v>5</v>
@@ -5940,7 +5960,7 @@
         <v>52</v>
       </c>
       <c r="B53" s="3">
-        <v>43239</v>
+        <v>43248</v>
       </c>
       <c r="C53" t="s">
         <v>5</v>
@@ -5963,7 +5983,7 @@
         <v>53</v>
       </c>
       <c r="B54" s="3">
-        <v>43240</v>
+        <v>43248</v>
       </c>
       <c r="C54" t="s">
         <v>5</v>
@@ -5986,7 +6006,7 @@
         <v>54</v>
       </c>
       <c r="B55" s="3">
-        <v>43241</v>
+        <v>43249</v>
       </c>
       <c r="C55" t="s">
         <v>5</v>
@@ -6009,7 +6029,7 @@
         <v>55</v>
       </c>
       <c r="B56" s="3">
-        <v>43242</v>
+        <v>43250</v>
       </c>
       <c r="C56" t="s">
         <v>5</v>
@@ -6032,7 +6052,7 @@
         <v>56</v>
       </c>
       <c r="B57" s="3">
-        <v>43243</v>
+        <v>43251</v>
       </c>
       <c r="C57" t="s">
         <v>5</v>
@@ -6055,7 +6075,7 @@
         <v>57</v>
       </c>
       <c r="B58" s="3">
-        <v>43244</v>
+        <v>43252</v>
       </c>
       <c r="C58" t="s">
         <v>5</v>
@@ -6078,7 +6098,7 @@
         <v>58</v>
       </c>
       <c r="B59" s="3">
-        <v>43245</v>
+        <v>43253</v>
       </c>
       <c r="C59" t="s">
         <v>5</v>
@@ -6101,7 +6121,7 @@
         <v>59</v>
       </c>
       <c r="B60" s="3">
-        <v>43246</v>
+        <v>43254</v>
       </c>
       <c r="C60" t="s">
         <v>5</v>
@@ -6124,7 +6144,7 @@
         <v>60</v>
       </c>
       <c r="B61" s="3">
-        <v>43247</v>
+        <v>43255</v>
       </c>
       <c r="C61" t="s">
         <v>5</v>
@@ -6147,7 +6167,7 @@
         <v>61</v>
       </c>
       <c r="B62" s="3">
-        <v>43248</v>
+        <v>43256</v>
       </c>
       <c r="C62" t="s">
         <v>5</v>
@@ -6170,7 +6190,7 @@
         <v>62</v>
       </c>
       <c r="B63" s="3">
-        <v>43249</v>
+        <v>43257</v>
       </c>
       <c r="C63" t="s">
         <v>5</v>
@@ -6193,7 +6213,7 @@
         <v>63</v>
       </c>
       <c r="B64" s="3">
-        <v>43250</v>
+        <v>43259</v>
       </c>
       <c r="C64" t="s">
         <v>5</v>
@@ -6216,7 +6236,7 @@
         <v>64</v>
       </c>
       <c r="B65" s="3">
-        <v>43251</v>
+        <v>43260</v>
       </c>
       <c r="C65" t="s">
         <v>5</v>
@@ -6239,7 +6259,7 @@
         <v>65</v>
       </c>
       <c r="B66" s="3">
-        <v>43252</v>
+        <v>43261</v>
       </c>
       <c r="C66" t="s">
         <v>5</v>
@@ -6262,7 +6282,7 @@
         <v>66</v>
       </c>
       <c r="B67" s="3">
-        <v>43253</v>
+        <v>43263</v>
       </c>
       <c r="C67" t="s">
         <v>5</v>
@@ -6285,7 +6305,7 @@
         <v>67</v>
       </c>
       <c r="B68" s="3">
-        <v>43254</v>
+        <v>43264</v>
       </c>
       <c r="C68" t="s">
         <v>5</v>
@@ -6308,7 +6328,7 @@
         <v>68</v>
       </c>
       <c r="B69" s="3">
-        <v>43255</v>
+        <v>43265</v>
       </c>
       <c r="C69" t="s">
         <v>5</v>
@@ -6331,7 +6351,7 @@
         <v>69</v>
       </c>
       <c r="B70" s="3">
-        <v>43256</v>
+        <v>43266</v>
       </c>
       <c r="C70" t="s">
         <v>5</v>
@@ -6354,7 +6374,7 @@
         <v>70</v>
       </c>
       <c r="B71" s="3">
-        <v>43257</v>
+        <v>43267</v>
       </c>
       <c r="C71" t="s">
         <v>5</v>
@@ -6377,7 +6397,7 @@
         <v>71</v>
       </c>
       <c r="B72" s="3">
-        <v>43258</v>
+        <v>43268</v>
       </c>
       <c r="C72" t="s">
         <v>5</v>
@@ -6400,7 +6420,7 @@
         <v>72</v>
       </c>
       <c r="B73" s="3">
-        <v>43259</v>
+        <v>43270</v>
       </c>
       <c r="C73" t="s">
         <v>5</v>
@@ -6423,7 +6443,7 @@
         <v>73</v>
       </c>
       <c r="B74" s="3">
-        <v>43260</v>
+        <v>43271</v>
       </c>
       <c r="C74" t="s">
         <v>5</v>
@@ -6446,7 +6466,7 @@
         <v>74</v>
       </c>
       <c r="B75" s="3">
-        <v>43261</v>
+        <v>43273</v>
       </c>
       <c r="C75" t="s">
         <v>5</v>
@@ -6469,7 +6489,7 @@
         <v>75</v>
       </c>
       <c r="B76" s="3">
-        <v>43262</v>
+        <v>43274</v>
       </c>
       <c r="C76" t="s">
         <v>5</v>
@@ -6492,7 +6512,7 @@
         <v>76</v>
       </c>
       <c r="B77" s="3">
-        <v>43263</v>
+        <v>43275</v>
       </c>
       <c r="C77" t="s">
         <v>5</v>
@@ -6515,7 +6535,7 @@
         <v>77</v>
       </c>
       <c r="B78" s="3">
-        <v>43264</v>
+        <v>43276</v>
       </c>
       <c r="C78" t="s">
         <v>5</v>
@@ -6538,7 +6558,7 @@
         <v>78</v>
       </c>
       <c r="B79" s="3">
-        <v>43265</v>
+        <v>43277</v>
       </c>
       <c r="C79" t="s">
         <v>5</v>
@@ -6561,7 +6581,7 @@
         <v>79</v>
       </c>
       <c r="B80" s="3">
-        <v>43266</v>
+        <v>43278</v>
       </c>
       <c r="C80" t="s">
         <v>5</v>
@@ -6584,7 +6604,7 @@
         <v>80</v>
       </c>
       <c r="B81" s="3">
-        <v>43267</v>
+        <v>43280</v>
       </c>
       <c r="C81" t="s">
         <v>5</v>
@@ -6607,7 +6627,7 @@
         <v>81</v>
       </c>
       <c r="B82" s="3">
-        <v>43268</v>
+        <v>43281</v>
       </c>
       <c r="C82" t="s">
         <v>5</v>
@@ -6630,7 +6650,7 @@
         <v>82</v>
       </c>
       <c r="B83" s="3">
-        <v>43269</v>
+        <v>43282</v>
       </c>
       <c r="C83" t="s">
         <v>5</v>
@@ -6653,7 +6673,7 @@
         <v>83</v>
       </c>
       <c r="B84" s="3">
-        <v>43270</v>
+        <v>43283</v>
       </c>
       <c r="C84" t="s">
         <v>5</v>
@@ -6676,7 +6696,7 @@
         <v>84</v>
       </c>
       <c r="B85" s="3">
-        <v>43271</v>
+        <v>43284</v>
       </c>
       <c r="C85" t="s">
         <v>5</v>
@@ -6699,7 +6719,7 @@
         <v>85</v>
       </c>
       <c r="B86" s="3">
-        <v>43272</v>
+        <v>43285</v>
       </c>
       <c r="C86" t="s">
         <v>5</v>
@@ -6722,7 +6742,7 @@
         <v>86</v>
       </c>
       <c r="B87" s="3">
-        <v>43273</v>
+        <v>43286</v>
       </c>
       <c r="C87" t="s">
         <v>5</v>
@@ -6745,7 +6765,7 @@
         <v>87</v>
       </c>
       <c r="B88" s="3">
-        <v>43274</v>
+        <v>43287</v>
       </c>
       <c r="C88" t="s">
         <v>5</v>
@@ -6768,7 +6788,7 @@
         <v>88</v>
       </c>
       <c r="B89" s="3">
-        <v>43275</v>
+        <v>43288</v>
       </c>
       <c r="C89" t="s">
         <v>5</v>
@@ -6791,7 +6811,7 @@
         <v>89</v>
       </c>
       <c r="B90" s="3">
-        <v>43276</v>
+        <v>43289</v>
       </c>
       <c r="C90" t="s">
         <v>5</v>
@@ -6814,7 +6834,7 @@
         <v>90</v>
       </c>
       <c r="B91" s="3">
-        <v>43277</v>
+        <v>43291</v>
       </c>
       <c r="C91" t="s">
         <v>5</v>
@@ -6837,7 +6857,7 @@
         <v>91</v>
       </c>
       <c r="B92" s="3">
-        <v>43278</v>
+        <v>43292</v>
       </c>
       <c r="C92" t="s">
         <v>5</v>
@@ -6860,7 +6880,7 @@
         <v>92</v>
       </c>
       <c r="B93" s="3">
-        <v>43279</v>
+        <v>43294</v>
       </c>
       <c r="C93" t="s">
         <v>5</v>
@@ -6883,7 +6903,7 @@
         <v>93</v>
       </c>
       <c r="B94" s="3">
-        <v>43280</v>
+        <v>43295</v>
       </c>
       <c r="C94" t="s">
         <v>5</v>
@@ -6906,7 +6926,7 @@
         <v>94</v>
       </c>
       <c r="B95" s="3">
-        <v>43281</v>
+        <v>43296</v>
       </c>
       <c r="C95" t="s">
         <v>5</v>
@@ -6929,7 +6949,7 @@
         <v>95</v>
       </c>
       <c r="B96" s="3">
-        <v>43282</v>
+        <v>43301</v>
       </c>
       <c r="C96" t="s">
         <v>5</v>
@@ -6952,7 +6972,7 @@
         <v>96</v>
       </c>
       <c r="B97" s="3">
-        <v>43283</v>
+        <v>43303</v>
       </c>
       <c r="C97" t="s">
         <v>5</v>
@@ -6975,7 +6995,7 @@
         <v>97</v>
       </c>
       <c r="B98" s="3">
-        <v>43284</v>
+        <v>43304</v>
       </c>
       <c r="C98" t="s">
         <v>5</v>
@@ -6998,7 +7018,7 @@
         <v>98</v>
       </c>
       <c r="B99" s="3">
-        <v>43285</v>
+        <v>43305</v>
       </c>
       <c r="C99" t="s">
         <v>5</v>
@@ -7021,7 +7041,7 @@
         <v>99</v>
       </c>
       <c r="B100" s="3">
-        <v>43286</v>
+        <v>43307</v>
       </c>
       <c r="C100" t="s">
         <v>5</v>
@@ -7044,7 +7064,7 @@
         <v>100</v>
       </c>
       <c r="B101" s="3">
-        <v>43287</v>
+        <v>43308</v>
       </c>
       <c r="C101" t="s">
         <v>5</v>
@@ -7067,7 +7087,7 @@
         <v>101</v>
       </c>
       <c r="B102" s="3">
-        <v>43288</v>
+        <v>43309</v>
       </c>
       <c r="C102" t="s">
         <v>5</v>
@@ -7090,7 +7110,7 @@
         <v>102</v>
       </c>
       <c r="B103" s="3">
-        <v>43289</v>
+        <v>43310</v>
       </c>
       <c r="C103" t="s">
         <v>5</v>
@@ -7113,7 +7133,7 @@
         <v>103</v>
       </c>
       <c r="B104" s="3">
-        <v>43290</v>
+        <v>43311</v>
       </c>
       <c r="C104" t="s">
         <v>5</v>
@@ -7136,7 +7156,7 @@
         <v>104</v>
       </c>
       <c r="B105" s="3">
-        <v>43291</v>
+        <v>43312</v>
       </c>
       <c r="C105" t="s">
         <v>5</v>
@@ -7159,7 +7179,7 @@
         <v>105</v>
       </c>
       <c r="B106" s="3">
-        <v>43292</v>
+        <v>43314</v>
       </c>
       <c r="C106" t="s">
         <v>5</v>
@@ -7182,7 +7202,7 @@
         <v>106</v>
       </c>
       <c r="B107" s="3">
-        <v>43293</v>
+        <v>43315</v>
       </c>
       <c r="C107" t="s">
         <v>5</v>
@@ -7205,7 +7225,7 @@
         <v>107</v>
       </c>
       <c r="B108" s="3">
-        <v>43294</v>
+        <v>43316</v>
       </c>
       <c r="C108" t="s">
         <v>5</v>
@@ -7228,7 +7248,7 @@
         <v>108</v>
       </c>
       <c r="B109" s="3">
-        <v>43295</v>
+        <v>43317</v>
       </c>
       <c r="C109" t="s">
         <v>5</v>
@@ -7251,7 +7271,7 @@
         <v>109</v>
       </c>
       <c r="B110" s="3">
-        <v>43296</v>
+        <v>43319</v>
       </c>
       <c r="C110" t="s">
         <v>5</v>
@@ -7274,7 +7294,7 @@
         <v>110</v>
       </c>
       <c r="B111" s="3">
-        <v>43297</v>
+        <v>43319</v>
       </c>
       <c r="C111" t="s">
         <v>5</v>
@@ -7297,7 +7317,7 @@
         <v>111</v>
       </c>
       <c r="B112" s="3">
-        <v>43298</v>
+        <v>43320</v>
       </c>
       <c r="C112" t="s">
         <v>5</v>
@@ -7320,7 +7340,7 @@
         <v>112</v>
       </c>
       <c r="B113" s="3">
-        <v>43299</v>
+        <v>43321</v>
       </c>
       <c r="C113" t="s">
         <v>5</v>
@@ -7343,7 +7363,7 @@
         <v>113</v>
       </c>
       <c r="B114" s="3">
-        <v>43300</v>
+        <v>43322</v>
       </c>
       <c r="C114" t="s">
         <v>5</v>
@@ -7366,7 +7386,7 @@
         <v>114</v>
       </c>
       <c r="B115" s="3">
-        <v>43301</v>
+        <v>43323</v>
       </c>
       <c r="C115" t="s">
         <v>5</v>
@@ -7389,7 +7409,7 @@
         <v>115</v>
       </c>
       <c r="B116" s="3">
-        <v>43302</v>
+        <v>43324</v>
       </c>
       <c r="C116" t="s">
         <v>5</v>
@@ -7412,7 +7432,7 @@
         <v>116</v>
       </c>
       <c r="B117" s="3">
-        <v>43303</v>
+        <v>43325</v>
       </c>
       <c r="C117" t="s">
         <v>5</v>
@@ -7435,7 +7455,7 @@
         <v>117</v>
       </c>
       <c r="B118" s="3">
-        <v>43304</v>
+        <v>43325</v>
       </c>
       <c r="C118" t="s">
         <v>5</v>
@@ -7458,7 +7478,7 @@
         <v>118</v>
       </c>
       <c r="B119" s="3">
-        <v>43305</v>
+        <v>43326</v>
       </c>
       <c r="C119" t="s">
         <v>5</v>
@@ -7481,7 +7501,7 @@
         <v>119</v>
       </c>
       <c r="B120" s="3">
-        <v>43306</v>
+        <v>43327</v>
       </c>
       <c r="C120" t="s">
         <v>5</v>
@@ -7504,7 +7524,7 @@
         <v>120</v>
       </c>
       <c r="B121" s="3">
-        <v>43307</v>
+        <v>43328</v>
       </c>
       <c r="C121" t="s">
         <v>5</v>
@@ -7527,7 +7547,7 @@
         <v>121</v>
       </c>
       <c r="B122" s="3">
-        <v>43308</v>
+        <v>43329</v>
       </c>
       <c r="C122" t="s">
         <v>5</v>
@@ -7550,7 +7570,7 @@
         <v>122</v>
       </c>
       <c r="B123" s="3">
-        <v>43309</v>
+        <v>43330</v>
       </c>
       <c r="C123" t="s">
         <v>5</v>
@@ -7573,7 +7593,7 @@
         <v>123</v>
       </c>
       <c r="B124" s="3">
-        <v>43310</v>
+        <v>43331</v>
       </c>
       <c r="C124" t="s">
         <v>5</v>
@@ -7596,7 +7616,7 @@
         <v>124</v>
       </c>
       <c r="B125" s="3">
-        <v>43311</v>
+        <v>43332</v>
       </c>
       <c r="C125" t="s">
         <v>5</v>
@@ -7619,7 +7639,7 @@
         <v>125</v>
       </c>
       <c r="B126" s="3">
-        <v>43312</v>
+        <v>43333</v>
       </c>
       <c r="C126" t="s">
         <v>5</v>
@@ -7642,7 +7662,7 @@
         <v>126</v>
       </c>
       <c r="B127" s="3">
-        <v>43313</v>
+        <v>43334</v>
       </c>
       <c r="C127" t="s">
         <v>5</v>
@@ -7665,7 +7685,7 @@
         <v>127</v>
       </c>
       <c r="B128" s="3">
-        <v>43314</v>
+        <v>43335</v>
       </c>
       <c r="C128" t="s">
         <v>5</v>
@@ -7688,7 +7708,7 @@
         <v>128</v>
       </c>
       <c r="B129" s="3">
-        <v>43315</v>
+        <v>43336</v>
       </c>
       <c r="C129" t="s">
         <v>5</v>
@@ -7711,7 +7731,7 @@
         <v>129</v>
       </c>
       <c r="B130" s="3">
-        <v>43316</v>
+        <v>43337</v>
       </c>
       <c r="C130" t="s">
         <v>5</v>
@@ -7734,7 +7754,7 @@
         <v>130</v>
       </c>
       <c r="B131" s="3">
-        <v>43317</v>
+        <v>43338</v>
       </c>
       <c r="C131" t="s">
         <v>5</v>
@@ -7757,7 +7777,7 @@
         <v>131</v>
       </c>
       <c r="B132" s="3">
-        <v>43318</v>
+        <v>43340</v>
       </c>
       <c r="C132" t="s">
         <v>5</v>
@@ -7780,7 +7800,7 @@
         <v>132</v>
       </c>
       <c r="B133" s="3">
-        <v>43319</v>
+        <v>43341</v>
       </c>
       <c r="C133" t="s">
         <v>5</v>
@@ -7803,7 +7823,7 @@
         <v>133</v>
       </c>
       <c r="B134" s="3">
-        <v>43320</v>
+        <v>43342</v>
       </c>
       <c r="C134" t="s">
         <v>5</v>
@@ -7826,7 +7846,7 @@
         <v>134</v>
       </c>
       <c r="B135" s="3">
-        <v>43321</v>
+        <v>43343</v>
       </c>
       <c r="C135" t="s">
         <v>5</v>
@@ -7849,7 +7869,7 @@
         <v>135</v>
       </c>
       <c r="B136" s="3">
-        <v>43322</v>
+        <v>43344</v>
       </c>
       <c r="C136" t="s">
         <v>5</v>
@@ -7872,7 +7892,7 @@
         <v>136</v>
       </c>
       <c r="B137" s="3">
-        <v>43323</v>
+        <v>43345</v>
       </c>
       <c r="C137" t="s">
         <v>5</v>
@@ -7895,7 +7915,7 @@
         <v>137</v>
       </c>
       <c r="B138" s="3">
-        <v>43324</v>
+        <v>43346</v>
       </c>
       <c r="C138" t="s">
         <v>5</v>
@@ -7918,7 +7938,7 @@
         <v>138</v>
       </c>
       <c r="B139" s="3">
-        <v>43325</v>
+        <v>43347</v>
       </c>
       <c r="C139" t="s">
         <v>5</v>
@@ -7941,7 +7961,7 @@
         <v>139</v>
       </c>
       <c r="B140" s="3">
-        <v>43326</v>
+        <v>43348</v>
       </c>
       <c r="C140" t="s">
         <v>5</v>
@@ -7964,7 +7984,7 @@
         <v>140</v>
       </c>
       <c r="B141" s="3">
-        <v>43327</v>
+        <v>43349</v>
       </c>
       <c r="C141" t="s">
         <v>5</v>
@@ -7987,7 +8007,7 @@
         <v>141</v>
       </c>
       <c r="B142" s="3">
-        <v>43328</v>
+        <v>43350</v>
       </c>
       <c r="C142" t="s">
         <v>5</v>
@@ -8010,7 +8030,7 @@
         <v>142</v>
       </c>
       <c r="B143" s="3">
-        <v>43329</v>
+        <v>43351</v>
       </c>
       <c r="C143" t="s">
         <v>5</v>
@@ -8033,7 +8053,7 @@
         <v>143</v>
       </c>
       <c r="B144" s="3">
-        <v>43330</v>
+        <v>43352</v>
       </c>
       <c r="C144" t="s">
         <v>5</v>
@@ -8056,7 +8076,7 @@
         <v>144</v>
       </c>
       <c r="B145" s="3">
-        <v>43331</v>
+        <v>43353</v>
       </c>
       <c r="C145" t="s">
         <v>5</v>
@@ -8079,7 +8099,7 @@
         <v>145</v>
       </c>
       <c r="B146" s="3">
-        <v>43332</v>
+        <v>43354</v>
       </c>
       <c r="C146" t="s">
         <v>5</v>
@@ -8102,7 +8122,7 @@
         <v>146</v>
       </c>
       <c r="B147" s="3">
-        <v>43333</v>
+        <v>43355</v>
       </c>
       <c r="C147" t="s">
         <v>5</v>
@@ -8125,7 +8145,7 @@
         <v>147</v>
       </c>
       <c r="B148" s="3">
-        <v>43334</v>
+        <v>43357</v>
       </c>
       <c r="C148" t="s">
         <v>5</v>
@@ -8148,7 +8168,7 @@
         <v>148</v>
       </c>
       <c r="B149" s="3">
-        <v>43335</v>
+        <v>43358</v>
       </c>
       <c r="C149" t="s">
         <v>5</v>
@@ -8171,7 +8191,7 @@
         <v>149</v>
       </c>
       <c r="B150" s="3">
-        <v>43336</v>
+        <v>43359</v>
       </c>
       <c r="C150" t="s">
         <v>5</v>
@@ -8194,7 +8214,7 @@
         <v>150</v>
       </c>
       <c r="B151" s="3">
-        <v>43337</v>
+        <v>43360</v>
       </c>
       <c r="C151" t="s">
         <v>5</v>
@@ -8217,7 +8237,7 @@
         <v>151</v>
       </c>
       <c r="B152" s="3">
-        <v>43338</v>
+        <v>43361</v>
       </c>
       <c r="C152" t="s">
         <v>5</v>
@@ -8240,7 +8260,7 @@
         <v>152</v>
       </c>
       <c r="B153" s="3">
-        <v>43339</v>
+        <v>43362</v>
       </c>
       <c r="C153" t="s">
         <v>5</v>
@@ -8263,7 +8283,7 @@
         <v>153</v>
       </c>
       <c r="B154" s="3">
-        <v>43340</v>
+        <v>43363</v>
       </c>
       <c r="C154" t="s">
         <v>5</v>
@@ -8286,7 +8306,7 @@
         <v>154</v>
       </c>
       <c r="B155" s="3">
-        <v>43341</v>
+        <v>43364</v>
       </c>
       <c r="C155" t="s">
         <v>5</v>
@@ -8309,7 +8329,7 @@
         <v>155</v>
       </c>
       <c r="B156" s="3">
-        <v>43342</v>
+        <v>43365</v>
       </c>
       <c r="C156" t="s">
         <v>5</v>
@@ -8332,7 +8352,7 @@
         <v>156</v>
       </c>
       <c r="B157" s="3">
-        <v>43343</v>
+        <v>43366</v>
       </c>
       <c r="C157" t="s">
         <v>5</v>
@@ -8355,7 +8375,7 @@
         <v>157</v>
       </c>
       <c r="B158" s="3">
-        <v>43344</v>
+        <v>43368</v>
       </c>
       <c r="C158" t="s">
         <v>5</v>
@@ -8378,7 +8398,7 @@
         <v>158</v>
       </c>
       <c r="B159" s="3">
-        <v>43345</v>
+        <v>43369</v>
       </c>
       <c r="C159" t="s">
         <v>5</v>
@@ -8401,7 +8421,7 @@
         <v>159</v>
       </c>
       <c r="B160" s="3">
-        <v>43346</v>
+        <v>43370</v>
       </c>
       <c r="C160" t="s">
         <v>5</v>
@@ -8424,7 +8444,7 @@
         <v>160</v>
       </c>
       <c r="B161" s="3">
-        <v>43347</v>
+        <v>43371</v>
       </c>
       <c r="C161" t="s">
         <v>5</v>
@@ -8447,7 +8467,7 @@
         <v>161</v>
       </c>
       <c r="B162" s="3">
-        <v>43348</v>
+        <v>43372</v>
       </c>
       <c r="C162" t="s">
         <v>5</v>
@@ -8470,7 +8490,7 @@
         <v>162</v>
       </c>
       <c r="B163" s="3">
-        <v>43349</v>
+        <v>43373</v>
       </c>
       <c r="C163" t="s">
         <v>5</v>
@@ -8494,6 +8514,3765 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FB62C3A-5D96-4851-90A5-336BDC6BA862}">
+  <dimension ref="A1:G163"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="2" max="2" width="18.89453125" style="3" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3">
+        <v>42828</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2">
+        <v>44384</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3">
+        <v>42830</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3">
+        <v>28113</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3">
+        <v>42831</v>
+      </c>
+      <c r="C4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4">
+        <v>23100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3">
+        <v>42832</v>
+      </c>
+      <c r="C5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G5">
+        <v>36484</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3">
+        <v>42833</v>
+      </c>
+      <c r="C6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G6">
+        <v>31756</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3">
+        <v>42834</v>
+      </c>
+      <c r="C7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G7">
+        <v>22713</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="3">
+        <v>42836</v>
+      </c>
+      <c r="C8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8" t="s">
+        <v>9</v>
+      </c>
+      <c r="G8">
+        <v>36519</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="3">
+        <v>42837</v>
+      </c>
+      <c r="C9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9" t="s">
+        <v>9</v>
+      </c>
+      <c r="G9">
+        <v>16808</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="3">
+        <v>42839</v>
+      </c>
+      <c r="C10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10" t="s">
+        <v>15</v>
+      </c>
+      <c r="G10">
+        <v>41149</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" s="3">
+        <v>42840</v>
+      </c>
+      <c r="C11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" t="s">
+        <v>6</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G11">
+        <v>41149</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" s="3">
+        <v>42841</v>
+      </c>
+      <c r="C12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" t="s">
+        <v>6</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12" t="s">
+        <v>15</v>
+      </c>
+      <c r="G12">
+        <v>37147</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" s="3">
+        <v>42842</v>
+      </c>
+      <c r="C13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" t="s">
+        <v>6</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13" t="s">
+        <v>15</v>
+      </c>
+      <c r="G13">
+        <v>24516</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" s="3">
+        <v>42843</v>
+      </c>
+      <c r="C14" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" t="s">
+        <v>6</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14" t="s">
+        <v>20</v>
+      </c>
+      <c r="G14">
+        <v>21834</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" s="3">
+        <v>42844</v>
+      </c>
+      <c r="C15" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15" t="s">
+        <v>6</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15" t="s">
+        <v>20</v>
+      </c>
+      <c r="G15">
+        <v>22101</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" s="3">
+        <v>42845</v>
+      </c>
+      <c r="C16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16" t="s">
+        <v>6</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16" t="s">
+        <v>20</v>
+      </c>
+      <c r="G16">
+        <v>27498</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" s="3">
+        <v>42846</v>
+      </c>
+      <c r="C17" t="s">
+        <v>5</v>
+      </c>
+      <c r="D17" t="s">
+        <v>6</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17" t="s">
+        <v>7</v>
+      </c>
+      <c r="G17">
+        <v>24189</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" s="3">
+        <v>42847</v>
+      </c>
+      <c r="C18" t="s">
+        <v>5</v>
+      </c>
+      <c r="D18" t="s">
+        <v>6</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18" t="s">
+        <v>7</v>
+      </c>
+      <c r="G18">
+        <v>31334</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" s="3">
+        <v>42848</v>
+      </c>
+      <c r="C19" t="s">
+        <v>5</v>
+      </c>
+      <c r="D19" t="s">
+        <v>6</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19" t="s">
+        <v>7</v>
+      </c>
+      <c r="G19">
+        <v>28632</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" s="3">
+        <v>42851</v>
+      </c>
+      <c r="C20" t="s">
+        <v>5</v>
+      </c>
+      <c r="D20" t="s">
+        <v>6</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20" t="s">
+        <v>11</v>
+      </c>
+      <c r="G20">
+        <v>22819</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" s="3">
+        <v>42852</v>
+      </c>
+      <c r="C21" t="s">
+        <v>5</v>
+      </c>
+      <c r="D21" t="s">
+        <v>6</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21" t="s">
+        <v>11</v>
+      </c>
+      <c r="G21">
+        <v>23243</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" s="3">
+        <v>42853</v>
+      </c>
+      <c r="C22" t="s">
+        <v>5</v>
+      </c>
+      <c r="D22" t="s">
+        <v>6</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22" t="s">
+        <v>18</v>
+      </c>
+      <c r="G22">
+        <v>26453</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" s="3">
+        <v>42854</v>
+      </c>
+      <c r="C23" t="s">
+        <v>5</v>
+      </c>
+      <c r="D23" t="s">
+        <v>6</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23" t="s">
+        <v>18</v>
+      </c>
+      <c r="G23">
+        <v>30026</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" s="3">
+        <v>42855</v>
+      </c>
+      <c r="C24" t="s">
+        <v>5</v>
+      </c>
+      <c r="D24" t="s">
+        <v>6</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24" t="s">
+        <v>18</v>
+      </c>
+      <c r="G24">
+        <v>24395</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" s="3">
+        <v>42856</v>
+      </c>
+      <c r="C25" t="s">
+        <v>5</v>
+      </c>
+      <c r="D25" t="s">
+        <v>6</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25" t="s">
+        <v>11</v>
+      </c>
+      <c r="G25">
+        <v>21668</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" s="3">
+        <v>42857</v>
+      </c>
+      <c r="C26" t="s">
+        <v>5</v>
+      </c>
+      <c r="D26" t="s">
+        <v>6</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26" t="s">
+        <v>11</v>
+      </c>
+      <c r="G26">
+        <v>21359</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" s="3">
+        <v>42858</v>
+      </c>
+      <c r="C27" t="s">
+        <v>5</v>
+      </c>
+      <c r="D27" t="s">
+        <v>6</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27" t="s">
+        <v>11</v>
+      </c>
+      <c r="G27">
+        <v>22656</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" s="3">
+        <v>42860</v>
+      </c>
+      <c r="C28" t="s">
+        <v>5</v>
+      </c>
+      <c r="D28" t="s">
+        <v>6</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28" t="s">
+        <v>17</v>
+      </c>
+      <c r="G28">
+        <v>34465</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" s="3">
+        <v>42861</v>
+      </c>
+      <c r="C29" t="s">
+        <v>5</v>
+      </c>
+      <c r="D29" t="s">
+        <v>6</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29" t="s">
+        <v>17</v>
+      </c>
+      <c r="G29">
+        <v>40706</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" s="3">
+        <v>42862</v>
+      </c>
+      <c r="C30" t="s">
+        <v>5</v>
+      </c>
+      <c r="D30" t="s">
+        <v>6</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30" t="s">
+        <v>17</v>
+      </c>
+      <c r="G30">
+        <v>40200</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" s="3">
+        <v>42864</v>
+      </c>
+      <c r="C31" t="s">
+        <v>5</v>
+      </c>
+      <c r="D31" t="s">
+        <v>6</v>
+      </c>
+      <c r="E31">
+        <v>1</v>
+      </c>
+      <c r="F31" t="s">
+        <v>34</v>
+      </c>
+      <c r="G31">
+        <v>28724</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" s="3">
+        <v>42865</v>
+      </c>
+      <c r="C32" t="s">
+        <v>5</v>
+      </c>
+      <c r="D32" t="s">
+        <v>6</v>
+      </c>
+      <c r="E32">
+        <v>1</v>
+      </c>
+      <c r="F32" t="s">
+        <v>34</v>
+      </c>
+      <c r="G32">
+        <v>23676</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" s="3">
+        <v>42867</v>
+      </c>
+      <c r="C33" t="s">
+        <v>5</v>
+      </c>
+      <c r="D33" t="s">
+        <v>6</v>
+      </c>
+      <c r="E33">
+        <v>1</v>
+      </c>
+      <c r="F33" t="s">
+        <v>9</v>
+      </c>
+      <c r="G33">
+        <v>20052</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" s="3">
+        <v>42868</v>
+      </c>
+      <c r="C34" t="s">
+        <v>5</v>
+      </c>
+      <c r="D34" t="s">
+        <v>6</v>
+      </c>
+      <c r="E34">
+        <v>1</v>
+      </c>
+      <c r="F34" t="s">
+        <v>9</v>
+      </c>
+      <c r="G34">
+        <v>26692</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" s="3">
+        <v>42869</v>
+      </c>
+      <c r="C35" t="s">
+        <v>5</v>
+      </c>
+      <c r="D35" t="s">
+        <v>6</v>
+      </c>
+      <c r="E35">
+        <v>1</v>
+      </c>
+      <c r="F35" t="s">
+        <v>9</v>
+      </c>
+      <c r="G35">
+        <v>17277</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" s="3">
+        <v>42870</v>
+      </c>
+      <c r="C36" t="s">
+        <v>5</v>
+      </c>
+      <c r="D36" t="s">
+        <v>6</v>
+      </c>
+      <c r="E36">
+        <v>1</v>
+      </c>
+      <c r="F36" t="s">
+        <v>25</v>
+      </c>
+      <c r="G36">
+        <v>29766</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" s="3">
+        <v>42871</v>
+      </c>
+      <c r="C37" t="s">
+        <v>5</v>
+      </c>
+      <c r="D37" t="s">
+        <v>6</v>
+      </c>
+      <c r="E37">
+        <v>1</v>
+      </c>
+      <c r="F37" t="s">
+        <v>25</v>
+      </c>
+      <c r="G37">
+        <v>34431</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" s="3">
+        <v>42872</v>
+      </c>
+      <c r="C38" t="s">
+        <v>5</v>
+      </c>
+      <c r="D38" t="s">
+        <v>6</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38" t="s">
+        <v>25</v>
+      </c>
+      <c r="G38">
+        <v>28293</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" s="3">
+        <v>42873</v>
+      </c>
+      <c r="C39" t="s">
+        <v>5</v>
+      </c>
+      <c r="D39" t="s">
+        <v>6</v>
+      </c>
+      <c r="E39">
+        <v>0</v>
+      </c>
+      <c r="F39" t="s">
+        <v>25</v>
+      </c>
+      <c r="G39">
+        <v>25419</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40" s="3">
+        <v>42874</v>
+      </c>
+      <c r="C40" t="s">
+        <v>5</v>
+      </c>
+      <c r="D40" t="s">
+        <v>6</v>
+      </c>
+      <c r="E40">
+        <v>0</v>
+      </c>
+      <c r="F40" t="s">
+        <v>20</v>
+      </c>
+      <c r="G40">
+        <v>35369</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41" s="3">
+        <v>42875</v>
+      </c>
+      <c r="C41" t="s">
+        <v>5</v>
+      </c>
+      <c r="D41" t="s">
+        <v>6</v>
+      </c>
+      <c r="E41">
+        <v>0</v>
+      </c>
+      <c r="F41" t="s">
+        <v>20</v>
+      </c>
+      <c r="G41">
+        <v>37347</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42" s="3">
+        <v>42876</v>
+      </c>
+      <c r="C42" t="s">
+        <v>5</v>
+      </c>
+      <c r="D42" t="s">
+        <v>6</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42" t="s">
+        <v>20</v>
+      </c>
+      <c r="G42">
+        <v>32895</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43" s="3">
+        <v>42877</v>
+      </c>
+      <c r="C43" t="s">
+        <v>5</v>
+      </c>
+      <c r="D43" t="s">
+        <v>6</v>
+      </c>
+      <c r="E43">
+        <v>0</v>
+      </c>
+      <c r="F43" t="s">
+        <v>22</v>
+      </c>
+      <c r="G43">
+        <v>21896</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44" s="3">
+        <v>42878</v>
+      </c>
+      <c r="C44" t="s">
+        <v>5</v>
+      </c>
+      <c r="D44" t="s">
+        <v>6</v>
+      </c>
+      <c r="E44">
+        <v>0</v>
+      </c>
+      <c r="F44" t="s">
+        <v>22</v>
+      </c>
+      <c r="G44">
+        <v>25040</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45" s="3">
+        <v>42879</v>
+      </c>
+      <c r="C45" t="s">
+        <v>5</v>
+      </c>
+      <c r="D45" t="s">
+        <v>6</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45" t="s">
+        <v>22</v>
+      </c>
+      <c r="G45">
+        <v>25981</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46" s="3">
+        <v>42880</v>
+      </c>
+      <c r="C46" t="s">
+        <v>5</v>
+      </c>
+      <c r="D46" t="s">
+        <v>6</v>
+      </c>
+      <c r="E46">
+        <v>0</v>
+      </c>
+      <c r="F46" t="s">
+        <v>22</v>
+      </c>
+      <c r="G46">
+        <v>33713</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47" s="3">
+        <v>42881</v>
+      </c>
+      <c r="C47" t="s">
+        <v>5</v>
+      </c>
+      <c r="D47" t="s">
+        <v>6</v>
+      </c>
+      <c r="E47">
+        <v>1</v>
+      </c>
+      <c r="F47" t="s">
+        <v>19</v>
+      </c>
+      <c r="G47">
+        <v>41326</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48" s="3">
+        <v>42882</v>
+      </c>
+      <c r="C48" t="s">
+        <v>5</v>
+      </c>
+      <c r="D48" t="s">
+        <v>6</v>
+      </c>
+      <c r="E48">
+        <v>1</v>
+      </c>
+      <c r="F48" t="s">
+        <v>19</v>
+      </c>
+      <c r="G48">
+        <v>41355</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49" s="3">
+        <v>42883</v>
+      </c>
+      <c r="C49" t="s">
+        <v>5</v>
+      </c>
+      <c r="D49" t="s">
+        <v>6</v>
+      </c>
+      <c r="E49">
+        <v>1</v>
+      </c>
+      <c r="F49" t="s">
+        <v>19</v>
+      </c>
+      <c r="G49">
+        <v>42343</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50" s="3">
+        <v>42884</v>
+      </c>
+      <c r="C50" t="s">
+        <v>5</v>
+      </c>
+      <c r="D50" t="s">
+        <v>6</v>
+      </c>
+      <c r="E50">
+        <v>1</v>
+      </c>
+      <c r="F50" t="s">
+        <v>35</v>
+      </c>
+      <c r="G50">
+        <v>38251</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51" s="3">
+        <v>42885</v>
+      </c>
+      <c r="C51" t="s">
+        <v>5</v>
+      </c>
+      <c r="D51" t="s">
+        <v>6</v>
+      </c>
+      <c r="E51">
+        <v>1</v>
+      </c>
+      <c r="F51" t="s">
+        <v>35</v>
+      </c>
+      <c r="G51">
+        <v>32028</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="B52" s="3">
+        <v>42886</v>
+      </c>
+      <c r="C52" t="s">
+        <v>5</v>
+      </c>
+      <c r="D52" t="s">
+        <v>6</v>
+      </c>
+      <c r="E52">
+        <v>1</v>
+      </c>
+      <c r="F52" t="s">
+        <v>35</v>
+      </c>
+      <c r="G52">
+        <v>35795</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="B53" s="3">
+        <v>42888</v>
+      </c>
+      <c r="C53" t="s">
+        <v>5</v>
+      </c>
+      <c r="D53" t="s">
+        <v>6</v>
+      </c>
+      <c r="E53">
+        <v>1</v>
+      </c>
+      <c r="F53" t="s">
+        <v>14</v>
+      </c>
+      <c r="G53">
+        <v>27300</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="B54" s="3">
+        <v>42889</v>
+      </c>
+      <c r="C54" t="s">
+        <v>5</v>
+      </c>
+      <c r="D54" t="s">
+        <v>6</v>
+      </c>
+      <c r="E54">
+        <v>1</v>
+      </c>
+      <c r="F54" t="s">
+        <v>14</v>
+      </c>
+      <c r="G54">
+        <v>26485</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A55">
+        <v>54</v>
+      </c>
+      <c r="B55" s="3">
+        <v>42890</v>
+      </c>
+      <c r="C55" t="s">
+        <v>5</v>
+      </c>
+      <c r="D55" t="s">
+        <v>6</v>
+      </c>
+      <c r="E55">
+        <v>1</v>
+      </c>
+      <c r="F55" t="s">
+        <v>14</v>
+      </c>
+      <c r="G55">
+        <v>26227</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A56">
+        <v>55</v>
+      </c>
+      <c r="B56" s="3">
+        <v>42891</v>
+      </c>
+      <c r="C56" t="s">
+        <v>5</v>
+      </c>
+      <c r="D56" t="s">
+        <v>6</v>
+      </c>
+      <c r="E56">
+        <v>0</v>
+      </c>
+      <c r="F56" t="s">
+        <v>7</v>
+      </c>
+      <c r="G56">
+        <v>20942</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A57">
+        <v>56</v>
+      </c>
+      <c r="B57" s="3">
+        <v>42892</v>
+      </c>
+      <c r="C57" t="s">
+        <v>5</v>
+      </c>
+      <c r="D57" t="s">
+        <v>6</v>
+      </c>
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57" t="s">
+        <v>7</v>
+      </c>
+      <c r="G57">
+        <v>23489</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A58">
+        <v>57</v>
+      </c>
+      <c r="B58" s="3">
+        <v>42893</v>
+      </c>
+      <c r="C58" t="s">
+        <v>5</v>
+      </c>
+      <c r="D58" t="s">
+        <v>6</v>
+      </c>
+      <c r="E58">
+        <v>0</v>
+      </c>
+      <c r="F58" t="s">
+        <v>7</v>
+      </c>
+      <c r="G58">
+        <v>24185</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A59">
+        <v>58</v>
+      </c>
+      <c r="B59" s="3">
+        <v>42894</v>
+      </c>
+      <c r="C59" t="s">
+        <v>5</v>
+      </c>
+      <c r="D59" t="s">
+        <v>6</v>
+      </c>
+      <c r="E59">
+        <v>0</v>
+      </c>
+      <c r="F59" t="s">
+        <v>7</v>
+      </c>
+      <c r="G59">
+        <v>25095</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A60">
+        <v>59</v>
+      </c>
+      <c r="B60" s="3">
+        <v>42895</v>
+      </c>
+      <c r="C60" t="s">
+        <v>5</v>
+      </c>
+      <c r="D60" t="s">
+        <v>6</v>
+      </c>
+      <c r="E60">
+        <v>0</v>
+      </c>
+      <c r="F60" t="s">
+        <v>11</v>
+      </c>
+      <c r="G60">
+        <v>36791</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A61">
+        <v>60</v>
+      </c>
+      <c r="B61" s="3">
+        <v>42896</v>
+      </c>
+      <c r="C61" t="s">
+        <v>5</v>
+      </c>
+      <c r="D61" t="s">
+        <v>6</v>
+      </c>
+      <c r="E61">
+        <v>0</v>
+      </c>
+      <c r="F61" t="s">
+        <v>11</v>
+      </c>
+      <c r="G61">
+        <v>27684</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A62">
+        <v>61</v>
+      </c>
+      <c r="B62" s="3">
+        <v>42896</v>
+      </c>
+      <c r="C62" t="s">
+        <v>5</v>
+      </c>
+      <c r="D62" t="s">
+        <v>6</v>
+      </c>
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62" t="s">
+        <v>11</v>
+      </c>
+      <c r="G62">
+        <v>40174</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A63">
+        <v>62</v>
+      </c>
+      <c r="B63" s="3">
+        <v>42897</v>
+      </c>
+      <c r="C63" t="s">
+        <v>5</v>
+      </c>
+      <c r="D63" t="s">
+        <v>6</v>
+      </c>
+      <c r="E63">
+        <v>0</v>
+      </c>
+      <c r="F63" t="s">
+        <v>11</v>
+      </c>
+      <c r="G63">
+        <v>30638</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A64">
+        <v>63</v>
+      </c>
+      <c r="B64" s="3">
+        <v>42898</v>
+      </c>
+      <c r="C64" t="s">
+        <v>5</v>
+      </c>
+      <c r="D64" t="s">
+        <v>6</v>
+      </c>
+      <c r="E64">
+        <v>1</v>
+      </c>
+      <c r="F64" t="s">
+        <v>20</v>
+      </c>
+      <c r="G64">
+        <v>28909</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A65">
+        <v>64</v>
+      </c>
+      <c r="B65" s="3">
+        <v>42899</v>
+      </c>
+      <c r="C65" t="s">
+        <v>5</v>
+      </c>
+      <c r="D65" t="s">
+        <v>6</v>
+      </c>
+      <c r="E65">
+        <v>1</v>
+      </c>
+      <c r="F65" t="s">
+        <v>20</v>
+      </c>
+      <c r="G65">
+        <v>31762</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A66">
+        <v>65</v>
+      </c>
+      <c r="B66" s="3">
+        <v>42900</v>
+      </c>
+      <c r="C66" t="s">
+        <v>5</v>
+      </c>
+      <c r="D66" t="s">
+        <v>6</v>
+      </c>
+      <c r="E66">
+        <v>1</v>
+      </c>
+      <c r="F66" t="s">
+        <v>20</v>
+      </c>
+      <c r="G66">
+        <v>36227</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A67">
+        <v>66</v>
+      </c>
+      <c r="B67" s="3">
+        <v>42902</v>
+      </c>
+      <c r="C67" t="s">
+        <v>5</v>
+      </c>
+      <c r="D67" t="s">
+        <v>6</v>
+      </c>
+      <c r="E67">
+        <v>0</v>
+      </c>
+      <c r="F67" t="s">
+        <v>9</v>
+      </c>
+      <c r="G67">
+        <v>38123</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A68">
+        <v>67</v>
+      </c>
+      <c r="B68" s="3">
+        <v>42903</v>
+      </c>
+      <c r="C68" t="s">
+        <v>5</v>
+      </c>
+      <c r="D68" t="s">
+        <v>6</v>
+      </c>
+      <c r="E68">
+        <v>0</v>
+      </c>
+      <c r="F68" t="s">
+        <v>9</v>
+      </c>
+      <c r="G68">
+        <v>38661</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A69">
+        <v>68</v>
+      </c>
+      <c r="B69" s="3">
+        <v>42904</v>
+      </c>
+      <c r="C69" t="s">
+        <v>5</v>
+      </c>
+      <c r="D69" t="s">
+        <v>6</v>
+      </c>
+      <c r="E69">
+        <v>0</v>
+      </c>
+      <c r="F69" t="s">
+        <v>9</v>
+      </c>
+      <c r="G69">
+        <v>36912</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A70">
+        <v>69</v>
+      </c>
+      <c r="B70" s="3">
+        <v>42905</v>
+      </c>
+      <c r="C70" t="s">
+        <v>5</v>
+      </c>
+      <c r="D70" t="s">
+        <v>6</v>
+      </c>
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70" t="s">
+        <v>19</v>
+      </c>
+      <c r="G70">
+        <v>24723</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A71">
+        <v>70</v>
+      </c>
+      <c r="B71" s="3">
+        <v>42906</v>
+      </c>
+      <c r="C71" t="s">
+        <v>5</v>
+      </c>
+      <c r="D71" t="s">
+        <v>6</v>
+      </c>
+      <c r="E71">
+        <v>0</v>
+      </c>
+      <c r="F71" t="s">
+        <v>19</v>
+      </c>
+      <c r="G71">
+        <v>23823</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A72">
+        <v>71</v>
+      </c>
+      <c r="B72" s="3">
+        <v>42907</v>
+      </c>
+      <c r="C72" t="s">
+        <v>5</v>
+      </c>
+      <c r="D72" t="s">
+        <v>6</v>
+      </c>
+      <c r="E72">
+        <v>0</v>
+      </c>
+      <c r="F72" t="s">
+        <v>19</v>
+      </c>
+      <c r="G72">
+        <v>25771</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A73">
+        <v>72</v>
+      </c>
+      <c r="B73" s="3">
+        <v>42908</v>
+      </c>
+      <c r="C73" t="s">
+        <v>5</v>
+      </c>
+      <c r="D73" t="s">
+        <v>6</v>
+      </c>
+      <c r="E73">
+        <v>0</v>
+      </c>
+      <c r="F73" t="s">
+        <v>19</v>
+      </c>
+      <c r="G73">
+        <v>25521</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A74">
+        <v>73</v>
+      </c>
+      <c r="B74" s="3">
+        <v>42909</v>
+      </c>
+      <c r="C74" t="s">
+        <v>5</v>
+      </c>
+      <c r="D74" t="s">
+        <v>6</v>
+      </c>
+      <c r="E74">
+        <v>0</v>
+      </c>
+      <c r="F74" t="s">
+        <v>18</v>
+      </c>
+      <c r="G74">
+        <v>30521</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A75">
+        <v>74</v>
+      </c>
+      <c r="B75" s="3">
+        <v>42910</v>
+      </c>
+      <c r="C75" t="s">
+        <v>5</v>
+      </c>
+      <c r="D75" t="s">
+        <v>6</v>
+      </c>
+      <c r="E75">
+        <v>0</v>
+      </c>
+      <c r="F75" t="s">
+        <v>18</v>
+      </c>
+      <c r="G75">
+        <v>38463</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A76">
+        <v>75</v>
+      </c>
+      <c r="B76" s="3">
+        <v>42911</v>
+      </c>
+      <c r="C76" t="s">
+        <v>5</v>
+      </c>
+      <c r="D76" t="s">
+        <v>6</v>
+      </c>
+      <c r="E76">
+        <v>0</v>
+      </c>
+      <c r="F76" t="s">
+        <v>18</v>
+      </c>
+      <c r="G76">
+        <v>31634</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A77">
+        <v>76</v>
+      </c>
+      <c r="B77" s="3">
+        <v>42913</v>
+      </c>
+      <c r="C77" t="s">
+        <v>5</v>
+      </c>
+      <c r="D77" t="s">
+        <v>6</v>
+      </c>
+      <c r="E77">
+        <v>1</v>
+      </c>
+      <c r="F77" t="s">
+        <v>15</v>
+      </c>
+      <c r="G77">
+        <v>20667</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A78">
+        <v>77</v>
+      </c>
+      <c r="B78" s="3">
+        <v>42914</v>
+      </c>
+      <c r="C78" t="s">
+        <v>5</v>
+      </c>
+      <c r="D78" t="s">
+        <v>6</v>
+      </c>
+      <c r="E78">
+        <v>1</v>
+      </c>
+      <c r="F78" t="s">
+        <v>15</v>
+      </c>
+      <c r="G78">
+        <v>19312</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A79">
+        <v>78</v>
+      </c>
+      <c r="B79" s="3">
+        <v>42915</v>
+      </c>
+      <c r="C79" t="s">
+        <v>5</v>
+      </c>
+      <c r="D79" t="s">
+        <v>6</v>
+      </c>
+      <c r="E79">
+        <v>1</v>
+      </c>
+      <c r="F79" t="s">
+        <v>15</v>
+      </c>
+      <c r="G79">
+        <v>20936</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A80">
+        <v>79</v>
+      </c>
+      <c r="B80" s="3">
+        <v>42916</v>
+      </c>
+      <c r="C80" t="s">
+        <v>5</v>
+      </c>
+      <c r="D80" t="s">
+        <v>6</v>
+      </c>
+      <c r="E80">
+        <v>1</v>
+      </c>
+      <c r="F80" t="s">
+        <v>36</v>
+      </c>
+      <c r="G80">
+        <v>19286</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A81">
+        <v>80</v>
+      </c>
+      <c r="B81" s="3">
+        <v>42917</v>
+      </c>
+      <c r="C81" t="s">
+        <v>5</v>
+      </c>
+      <c r="D81" t="s">
+        <v>6</v>
+      </c>
+      <c r="E81">
+        <v>1</v>
+      </c>
+      <c r="F81" t="s">
+        <v>36</v>
+      </c>
+      <c r="G81">
+        <v>22230</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A82">
+        <v>81</v>
+      </c>
+      <c r="B82" s="3">
+        <v>42918</v>
+      </c>
+      <c r="C82" t="s">
+        <v>5</v>
+      </c>
+      <c r="D82" t="s">
+        <v>6</v>
+      </c>
+      <c r="E82">
+        <v>1</v>
+      </c>
+      <c r="F82" t="s">
+        <v>36</v>
+      </c>
+      <c r="G82">
+        <v>18438</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A83">
+        <v>82</v>
+      </c>
+      <c r="B83" s="3">
+        <v>42920</v>
+      </c>
+      <c r="C83" t="s">
+        <v>5</v>
+      </c>
+      <c r="D83" t="s">
+        <v>6</v>
+      </c>
+      <c r="E83">
+        <v>0</v>
+      </c>
+      <c r="F83" t="s">
+        <v>34</v>
+      </c>
+      <c r="G83">
+        <v>41456</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A84">
+        <v>83</v>
+      </c>
+      <c r="B84" s="3">
+        <v>42921</v>
+      </c>
+      <c r="C84" t="s">
+        <v>5</v>
+      </c>
+      <c r="D84" t="s">
+        <v>6</v>
+      </c>
+      <c r="E84">
+        <v>0</v>
+      </c>
+      <c r="F84" t="s">
+        <v>34</v>
+      </c>
+      <c r="G84">
+        <v>37278</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A85">
+        <v>84</v>
+      </c>
+      <c r="B85" s="3">
+        <v>42922</v>
+      </c>
+      <c r="C85" t="s">
+        <v>5</v>
+      </c>
+      <c r="D85" t="s">
+        <v>6</v>
+      </c>
+      <c r="E85">
+        <v>1</v>
+      </c>
+      <c r="F85" t="s">
+        <v>20</v>
+      </c>
+      <c r="G85">
+        <v>22724</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A86">
+        <v>85</v>
+      </c>
+      <c r="B86" s="3">
+        <v>42923</v>
+      </c>
+      <c r="C86" t="s">
+        <v>5</v>
+      </c>
+      <c r="D86" t="s">
+        <v>6</v>
+      </c>
+      <c r="E86">
+        <v>1</v>
+      </c>
+      <c r="F86" t="s">
+        <v>20</v>
+      </c>
+      <c r="G86">
+        <v>32664</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A87">
+        <v>86</v>
+      </c>
+      <c r="B87" s="3">
+        <v>42924</v>
+      </c>
+      <c r="C87" t="s">
+        <v>5</v>
+      </c>
+      <c r="D87" t="s">
+        <v>6</v>
+      </c>
+      <c r="E87">
+        <v>1</v>
+      </c>
+      <c r="F87" t="s">
+        <v>20</v>
+      </c>
+      <c r="G87">
+        <v>38439</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A88">
+        <v>87</v>
+      </c>
+      <c r="B88" s="3">
+        <v>42925</v>
+      </c>
+      <c r="C88" t="s">
+        <v>5</v>
+      </c>
+      <c r="D88" t="s">
+        <v>6</v>
+      </c>
+      <c r="E88">
+        <v>1</v>
+      </c>
+      <c r="F88" t="s">
+        <v>20</v>
+      </c>
+      <c r="G88">
+        <v>35030</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A89">
+        <v>88</v>
+      </c>
+      <c r="B89" s="3">
+        <v>42930</v>
+      </c>
+      <c r="C89" t="s">
+        <v>5</v>
+      </c>
+      <c r="D89" t="s">
+        <v>6</v>
+      </c>
+      <c r="E89">
+        <v>0</v>
+      </c>
+      <c r="F89" t="s">
+        <v>12</v>
+      </c>
+      <c r="G89">
+        <v>38852</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A90">
+        <v>89</v>
+      </c>
+      <c r="B90" s="3">
+        <v>42931</v>
+      </c>
+      <c r="C90" t="s">
+        <v>5</v>
+      </c>
+      <c r="D90" t="s">
+        <v>6</v>
+      </c>
+      <c r="E90">
+        <v>0</v>
+      </c>
+      <c r="F90" t="s">
+        <v>12</v>
+      </c>
+      <c r="G90">
+        <v>41627</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A91">
+        <v>90</v>
+      </c>
+      <c r="B91" s="3">
+        <v>42932</v>
+      </c>
+      <c r="C91" t="s">
+        <v>5</v>
+      </c>
+      <c r="D91" t="s">
+        <v>6</v>
+      </c>
+      <c r="E91">
+        <v>0</v>
+      </c>
+      <c r="F91" t="s">
+        <v>12</v>
+      </c>
+      <c r="G91">
+        <v>36637</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A92">
+        <v>91</v>
+      </c>
+      <c r="B92" s="3">
+        <v>42933</v>
+      </c>
+      <c r="C92" t="s">
+        <v>5</v>
+      </c>
+      <c r="D92" t="s">
+        <v>6</v>
+      </c>
+      <c r="E92">
+        <v>0</v>
+      </c>
+      <c r="F92" t="s">
+        <v>8</v>
+      </c>
+      <c r="G92">
+        <v>41256</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A93">
+        <v>92</v>
+      </c>
+      <c r="B93" s="3">
+        <v>42934</v>
+      </c>
+      <c r="C93" t="s">
+        <v>5</v>
+      </c>
+      <c r="D93" t="s">
+        <v>6</v>
+      </c>
+      <c r="E93">
+        <v>0</v>
+      </c>
+      <c r="F93" t="s">
+        <v>8</v>
+      </c>
+      <c r="G93">
+        <v>41541</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A94">
+        <v>93</v>
+      </c>
+      <c r="B94" s="3">
+        <v>42935</v>
+      </c>
+      <c r="C94" t="s">
+        <v>5</v>
+      </c>
+      <c r="D94" t="s">
+        <v>6</v>
+      </c>
+      <c r="E94">
+        <v>0</v>
+      </c>
+      <c r="F94" t="s">
+        <v>8</v>
+      </c>
+      <c r="G94">
+        <v>40054</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A95">
+        <v>94</v>
+      </c>
+      <c r="B95" s="3">
+        <v>42936</v>
+      </c>
+      <c r="C95" t="s">
+        <v>5</v>
+      </c>
+      <c r="D95" t="s">
+        <v>6</v>
+      </c>
+      <c r="E95">
+        <v>1</v>
+      </c>
+      <c r="F95" t="s">
+        <v>16</v>
+      </c>
+      <c r="G95">
+        <v>45636</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A96">
+        <v>95</v>
+      </c>
+      <c r="B96" s="3">
+        <v>42937</v>
+      </c>
+      <c r="C96" t="s">
+        <v>5</v>
+      </c>
+      <c r="D96" t="s">
+        <v>6</v>
+      </c>
+      <c r="E96">
+        <v>1</v>
+      </c>
+      <c r="F96" t="s">
+        <v>16</v>
+      </c>
+      <c r="G96">
+        <v>46083</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A97">
+        <v>96</v>
+      </c>
+      <c r="B97" s="3">
+        <v>42938</v>
+      </c>
+      <c r="C97" t="s">
+        <v>5</v>
+      </c>
+      <c r="D97" t="s">
+        <v>6</v>
+      </c>
+      <c r="E97">
+        <v>1</v>
+      </c>
+      <c r="F97" t="s">
+        <v>16</v>
+      </c>
+      <c r="G97">
+        <v>47497</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A98">
+        <v>97</v>
+      </c>
+      <c r="B98" s="3">
+        <v>42939</v>
+      </c>
+      <c r="C98" t="s">
+        <v>5</v>
+      </c>
+      <c r="D98" t="s">
+        <v>6</v>
+      </c>
+      <c r="E98">
+        <v>1</v>
+      </c>
+      <c r="F98" t="s">
+        <v>16</v>
+      </c>
+      <c r="G98">
+        <v>44701</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A99">
+        <v>98</v>
+      </c>
+      <c r="B99" s="3">
+        <v>42940</v>
+      </c>
+      <c r="C99" t="s">
+        <v>5</v>
+      </c>
+      <c r="D99" t="s">
+        <v>6</v>
+      </c>
+      <c r="E99">
+        <v>1</v>
+      </c>
+      <c r="F99" t="s">
+        <v>12</v>
+      </c>
+      <c r="G99">
+        <v>20862</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A100">
+        <v>99</v>
+      </c>
+      <c r="B100" s="3">
+        <v>42941</v>
+      </c>
+      <c r="C100" t="s">
+        <v>5</v>
+      </c>
+      <c r="D100" t="s">
+        <v>6</v>
+      </c>
+      <c r="E100">
+        <v>1</v>
+      </c>
+      <c r="F100" t="s">
+        <v>12</v>
+      </c>
+      <c r="G100">
+        <v>25069</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A101">
+        <v>100</v>
+      </c>
+      <c r="B101" s="3">
+        <v>42942</v>
+      </c>
+      <c r="C101" t="s">
+        <v>5</v>
+      </c>
+      <c r="D101" t="s">
+        <v>6</v>
+      </c>
+      <c r="E101">
+        <v>1</v>
+      </c>
+      <c r="F101" t="s">
+        <v>12</v>
+      </c>
+      <c r="G101">
+        <v>25836</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A102">
+        <v>101</v>
+      </c>
+      <c r="B102" s="3">
+        <v>42944</v>
+      </c>
+      <c r="C102" t="s">
+        <v>5</v>
+      </c>
+      <c r="D102" t="s">
+        <v>6</v>
+      </c>
+      <c r="E102">
+        <v>1</v>
+      </c>
+      <c r="F102" t="s">
+        <v>7</v>
+      </c>
+      <c r="G102">
+        <v>17177</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A103">
+        <v>102</v>
+      </c>
+      <c r="B103" s="3">
+        <v>42945</v>
+      </c>
+      <c r="C103" t="s">
+        <v>5</v>
+      </c>
+      <c r="D103" t="s">
+        <v>6</v>
+      </c>
+      <c r="E103">
+        <v>1</v>
+      </c>
+      <c r="F103" t="s">
+        <v>7</v>
+      </c>
+      <c r="G103">
+        <v>28162</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A104">
+        <v>103</v>
+      </c>
+      <c r="B104" s="3">
+        <v>42946</v>
+      </c>
+      <c r="C104" t="s">
+        <v>5</v>
+      </c>
+      <c r="D104" t="s">
+        <v>6</v>
+      </c>
+      <c r="E104">
+        <v>1</v>
+      </c>
+      <c r="F104" t="s">
+        <v>7</v>
+      </c>
+      <c r="G104">
+        <v>20680</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A105">
+        <v>104</v>
+      </c>
+      <c r="B105" s="3">
+        <v>42947</v>
+      </c>
+      <c r="C105" t="s">
+        <v>5</v>
+      </c>
+      <c r="D105" t="s">
+        <v>6</v>
+      </c>
+      <c r="E105">
+        <v>1</v>
+      </c>
+      <c r="F105" t="s">
+        <v>7</v>
+      </c>
+      <c r="G105">
+        <v>20297</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A106">
+        <v>105</v>
+      </c>
+      <c r="B106" s="3">
+        <v>42948</v>
+      </c>
+      <c r="C106" t="s">
+        <v>5</v>
+      </c>
+      <c r="D106" t="s">
+        <v>6</v>
+      </c>
+      <c r="E106">
+        <v>0</v>
+      </c>
+      <c r="F106" t="s">
+        <v>16</v>
+      </c>
+      <c r="G106">
+        <v>32174</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A107">
+        <v>106</v>
+      </c>
+      <c r="B107" s="3">
+        <v>42949</v>
+      </c>
+      <c r="C107" t="s">
+        <v>5</v>
+      </c>
+      <c r="D107" t="s">
+        <v>6</v>
+      </c>
+      <c r="E107">
+        <v>0</v>
+      </c>
+      <c r="F107" t="s">
+        <v>16</v>
+      </c>
+      <c r="G107">
+        <v>28107</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A108">
+        <v>107</v>
+      </c>
+      <c r="B108" s="3">
+        <v>42950</v>
+      </c>
+      <c r="C108" t="s">
+        <v>5</v>
+      </c>
+      <c r="D108" t="s">
+        <v>6</v>
+      </c>
+      <c r="E108">
+        <v>0</v>
+      </c>
+      <c r="F108" t="s">
+        <v>16</v>
+      </c>
+      <c r="G108">
+        <v>29680</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A109">
+        <v>108</v>
+      </c>
+      <c r="B109" s="3">
+        <v>42951</v>
+      </c>
+      <c r="C109" t="s">
+        <v>5</v>
+      </c>
+      <c r="D109" t="s">
+        <v>6</v>
+      </c>
+      <c r="E109">
+        <v>0</v>
+      </c>
+      <c r="F109" t="s">
+        <v>9</v>
+      </c>
+      <c r="G109">
+        <v>35914</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A110">
+        <v>109</v>
+      </c>
+      <c r="B110" s="3">
+        <v>42952</v>
+      </c>
+      <c r="C110" t="s">
+        <v>5</v>
+      </c>
+      <c r="D110" t="s">
+        <v>6</v>
+      </c>
+      <c r="E110">
+        <v>0</v>
+      </c>
+      <c r="F110" t="s">
+        <v>9</v>
+      </c>
+      <c r="G110">
+        <v>40731</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A111">
+        <v>110</v>
+      </c>
+      <c r="B111" s="3">
+        <v>42953</v>
+      </c>
+      <c r="C111" t="s">
+        <v>5</v>
+      </c>
+      <c r="D111" t="s">
+        <v>6</v>
+      </c>
+      <c r="E111">
+        <v>0</v>
+      </c>
+      <c r="F111" t="s">
+        <v>9</v>
+      </c>
+      <c r="G111">
+        <v>29651</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A112">
+        <v>111</v>
+      </c>
+      <c r="B112" s="3">
+        <v>42955</v>
+      </c>
+      <c r="C112" t="s">
+        <v>5</v>
+      </c>
+      <c r="D112" t="s">
+        <v>6</v>
+      </c>
+      <c r="E112">
+        <v>0</v>
+      </c>
+      <c r="F112" t="s">
+        <v>7</v>
+      </c>
+      <c r="G112">
+        <v>25783</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A113">
+        <v>112</v>
+      </c>
+      <c r="B113" s="3">
+        <v>42956</v>
+      </c>
+      <c r="C113" t="s">
+        <v>5</v>
+      </c>
+      <c r="D113" t="s">
+        <v>6</v>
+      </c>
+      <c r="E113">
+        <v>0</v>
+      </c>
+      <c r="F113" t="s">
+        <v>7</v>
+      </c>
+      <c r="G113">
+        <v>22776</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A114">
+        <v>113</v>
+      </c>
+      <c r="B114" s="3">
+        <v>42958</v>
+      </c>
+      <c r="C114" t="s">
+        <v>5</v>
+      </c>
+      <c r="D114" t="s">
+        <v>6</v>
+      </c>
+      <c r="E114">
+        <v>1</v>
+      </c>
+      <c r="F114" t="s">
+        <v>17</v>
+      </c>
+      <c r="G114">
+        <v>41928</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A115">
+        <v>114</v>
+      </c>
+      <c r="B115" s="3">
+        <v>42959</v>
+      </c>
+      <c r="C115" t="s">
+        <v>5</v>
+      </c>
+      <c r="D115" t="s">
+        <v>6</v>
+      </c>
+      <c r="E115">
+        <v>1</v>
+      </c>
+      <c r="F115" t="s">
+        <v>17</v>
+      </c>
+      <c r="G115">
+        <v>46360</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A116">
+        <v>115</v>
+      </c>
+      <c r="B116" s="3">
+        <v>42960</v>
+      </c>
+      <c r="C116" t="s">
+        <v>5</v>
+      </c>
+      <c r="D116" t="s">
+        <v>6</v>
+      </c>
+      <c r="E116">
+        <v>1</v>
+      </c>
+      <c r="F116" t="s">
+        <v>17</v>
+      </c>
+      <c r="G116">
+        <v>44534</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A117">
+        <v>116</v>
+      </c>
+      <c r="B117" s="3">
+        <v>42961</v>
+      </c>
+      <c r="C117" t="s">
+        <v>5</v>
+      </c>
+      <c r="D117" t="s">
+        <v>6</v>
+      </c>
+      <c r="E117">
+        <v>1</v>
+      </c>
+      <c r="F117" t="s">
+        <v>10</v>
+      </c>
+      <c r="G117">
+        <v>33641</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A118">
+        <v>117</v>
+      </c>
+      <c r="B118" s="3">
+        <v>42962</v>
+      </c>
+      <c r="C118" t="s">
+        <v>5</v>
+      </c>
+      <c r="D118" t="s">
+        <v>6</v>
+      </c>
+      <c r="E118">
+        <v>1</v>
+      </c>
+      <c r="F118" t="s">
+        <v>10</v>
+      </c>
+      <c r="G118">
+        <v>28655</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A119">
+        <v>118</v>
+      </c>
+      <c r="B119" s="3">
+        <v>42963</v>
+      </c>
+      <c r="C119" t="s">
+        <v>5</v>
+      </c>
+      <c r="D119" t="s">
+        <v>6</v>
+      </c>
+      <c r="E119">
+        <v>1</v>
+      </c>
+      <c r="F119" t="s">
+        <v>10</v>
+      </c>
+      <c r="G119">
+        <v>30695</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A120">
+        <v>119</v>
+      </c>
+      <c r="B120" s="3">
+        <v>42964</v>
+      </c>
+      <c r="C120" t="s">
+        <v>5</v>
+      </c>
+      <c r="D120" t="s">
+        <v>6</v>
+      </c>
+      <c r="E120">
+        <v>1</v>
+      </c>
+      <c r="F120" t="s">
+        <v>10</v>
+      </c>
+      <c r="G120">
+        <v>30020</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A121">
+        <v>120</v>
+      </c>
+      <c r="B121" s="3">
+        <v>42965</v>
+      </c>
+      <c r="C121" t="s">
+        <v>5</v>
+      </c>
+      <c r="D121" t="s">
+        <v>6</v>
+      </c>
+      <c r="E121">
+        <v>0</v>
+      </c>
+      <c r="F121" t="s">
+        <v>14</v>
+      </c>
+      <c r="G121">
+        <v>31174</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A122">
+        <v>121</v>
+      </c>
+      <c r="B122" s="3">
+        <v>42966</v>
+      </c>
+      <c r="C122" t="s">
+        <v>5</v>
+      </c>
+      <c r="D122" t="s">
+        <v>6</v>
+      </c>
+      <c r="E122">
+        <v>0</v>
+      </c>
+      <c r="F122" t="s">
+        <v>14</v>
+      </c>
+      <c r="G122">
+        <v>39317</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A123">
+        <v>122</v>
+      </c>
+      <c r="B123" s="3">
+        <v>42967</v>
+      </c>
+      <c r="C123" t="s">
+        <v>5</v>
+      </c>
+      <c r="D123" t="s">
+        <v>6</v>
+      </c>
+      <c r="E123">
+        <v>0</v>
+      </c>
+      <c r="F123" t="s">
+        <v>14</v>
+      </c>
+      <c r="G123">
+        <v>25758</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A124">
+        <v>123</v>
+      </c>
+      <c r="B124" s="3">
+        <v>42968</v>
+      </c>
+      <c r="C124" t="s">
+        <v>5</v>
+      </c>
+      <c r="D124" t="s">
+        <v>6</v>
+      </c>
+      <c r="E124">
+        <v>0</v>
+      </c>
+      <c r="F124" t="s">
+        <v>37</v>
+      </c>
+      <c r="G124">
+        <v>21284</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A125">
+        <v>124</v>
+      </c>
+      <c r="B125" s="3">
+        <v>42969</v>
+      </c>
+      <c r="C125" t="s">
+        <v>5</v>
+      </c>
+      <c r="D125" t="s">
+        <v>6</v>
+      </c>
+      <c r="E125">
+        <v>0</v>
+      </c>
+      <c r="F125" t="s">
+        <v>37</v>
+      </c>
+      <c r="G125">
+        <v>22947</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A126">
+        <v>125</v>
+      </c>
+      <c r="B126" s="3">
+        <v>42970</v>
+      </c>
+      <c r="C126" t="s">
+        <v>5</v>
+      </c>
+      <c r="D126" t="s">
+        <v>6</v>
+      </c>
+      <c r="E126">
+        <v>0</v>
+      </c>
+      <c r="F126" t="s">
+        <v>37</v>
+      </c>
+      <c r="G126">
+        <v>23890</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A127">
+        <v>126</v>
+      </c>
+      <c r="B127" s="3">
+        <v>42972</v>
+      </c>
+      <c r="C127" t="s">
+        <v>5</v>
+      </c>
+      <c r="D127" t="s">
+        <v>6</v>
+      </c>
+      <c r="E127">
+        <v>0</v>
+      </c>
+      <c r="F127" t="s">
+        <v>10</v>
+      </c>
+      <c r="G127">
+        <v>33577</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A128">
+        <v>127</v>
+      </c>
+      <c r="B128" s="3">
+        <v>42973</v>
+      </c>
+      <c r="C128" t="s">
+        <v>5</v>
+      </c>
+      <c r="D128" t="s">
+        <v>6</v>
+      </c>
+      <c r="E128">
+        <v>0</v>
+      </c>
+      <c r="F128" t="s">
+        <v>10</v>
+      </c>
+      <c r="G128">
+        <v>32448</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A129">
+        <v>128</v>
+      </c>
+      <c r="B129" s="3">
+        <v>42974</v>
+      </c>
+      <c r="C129" t="s">
+        <v>5</v>
+      </c>
+      <c r="D129" t="s">
+        <v>6</v>
+      </c>
+      <c r="E129">
+        <v>0</v>
+      </c>
+      <c r="F129" t="s">
+        <v>10</v>
+      </c>
+      <c r="G129">
+        <v>28154</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A130">
+        <v>129</v>
+      </c>
+      <c r="B130" s="3">
+        <v>42975</v>
+      </c>
+      <c r="C130" t="s">
+        <v>5</v>
+      </c>
+      <c r="D130" t="s">
+        <v>6</v>
+      </c>
+      <c r="E130">
+        <v>1</v>
+      </c>
+      <c r="F130" t="s">
+        <v>7</v>
+      </c>
+      <c r="G130">
+        <v>15154</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A131">
+        <v>130</v>
+      </c>
+      <c r="B131" s="3">
+        <v>42977</v>
+      </c>
+      <c r="C131" t="s">
+        <v>5</v>
+      </c>
+      <c r="D131" t="s">
+        <v>6</v>
+      </c>
+      <c r="E131">
+        <v>1</v>
+      </c>
+      <c r="F131" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A132">
+        <v>131</v>
+      </c>
+      <c r="B132" s="3">
+        <v>42977</v>
+      </c>
+      <c r="C132" t="s">
+        <v>5</v>
+      </c>
+      <c r="D132" t="s">
+        <v>6</v>
+      </c>
+      <c r="E132">
+        <v>1</v>
+      </c>
+      <c r="F132" t="s">
+        <v>7</v>
+      </c>
+      <c r="G132">
+        <v>15706</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A133">
+        <v>132</v>
+      </c>
+      <c r="B133" s="3">
+        <v>42978</v>
+      </c>
+      <c r="C133" t="s">
+        <v>5</v>
+      </c>
+      <c r="D133" t="s">
+        <v>6</v>
+      </c>
+      <c r="E133">
+        <v>1</v>
+      </c>
+      <c r="F133" t="s">
+        <v>8</v>
+      </c>
+      <c r="G133">
+        <v>38031</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A134">
+        <v>133</v>
+      </c>
+      <c r="B134" s="3">
+        <v>42979</v>
+      </c>
+      <c r="C134" t="s">
+        <v>5</v>
+      </c>
+      <c r="D134" t="s">
+        <v>6</v>
+      </c>
+      <c r="E134">
+        <v>1</v>
+      </c>
+      <c r="F134" t="s">
+        <v>8</v>
+      </c>
+      <c r="G134">
+        <v>37280</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A135">
+        <v>134</v>
+      </c>
+      <c r="B135" s="3">
+        <v>42980</v>
+      </c>
+      <c r="C135" t="s">
+        <v>5</v>
+      </c>
+      <c r="D135" t="s">
+        <v>6</v>
+      </c>
+      <c r="E135">
+        <v>1</v>
+      </c>
+      <c r="F135" t="s">
+        <v>8</v>
+      </c>
+      <c r="G135">
+        <v>41329</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A136">
+        <v>135</v>
+      </c>
+      <c r="B136" s="3">
+        <v>42981</v>
+      </c>
+      <c r="C136" t="s">
+        <v>5</v>
+      </c>
+      <c r="D136" t="s">
+        <v>6</v>
+      </c>
+      <c r="E136">
+        <v>1</v>
+      </c>
+      <c r="F136" t="s">
+        <v>8</v>
+      </c>
+      <c r="G136">
+        <v>42145</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A137">
+        <v>136</v>
+      </c>
+      <c r="B137" s="3">
+        <v>42982</v>
+      </c>
+      <c r="C137" t="s">
+        <v>5</v>
+      </c>
+      <c r="D137" t="s">
+        <v>6</v>
+      </c>
+      <c r="E137">
+        <v>0</v>
+      </c>
+      <c r="F137" t="s">
+        <v>38</v>
+      </c>
+      <c r="G137">
+        <v>23474</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A138">
+        <v>137</v>
+      </c>
+      <c r="B138" s="3">
+        <v>42984</v>
+      </c>
+      <c r="C138" t="s">
+        <v>5</v>
+      </c>
+      <c r="D138" t="s">
+        <v>6</v>
+      </c>
+      <c r="E138">
+        <v>0</v>
+      </c>
+      <c r="F138" t="s">
+        <v>38</v>
+      </c>
+      <c r="G138">
+        <v>19971</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A139">
+        <v>138</v>
+      </c>
+      <c r="B139" s="3">
+        <v>42984</v>
+      </c>
+      <c r="C139" t="s">
+        <v>5</v>
+      </c>
+      <c r="D139" t="s">
+        <v>6</v>
+      </c>
+      <c r="E139">
+        <v>0</v>
+      </c>
+      <c r="F139" t="s">
+        <v>38</v>
+      </c>
+      <c r="G139">
+        <v>20364</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A140">
+        <v>139</v>
+      </c>
+      <c r="B140" s="3">
+        <v>42985</v>
+      </c>
+      <c r="C140" t="s">
+        <v>5</v>
+      </c>
+      <c r="D140" t="s">
+        <v>6</v>
+      </c>
+      <c r="E140">
+        <v>0</v>
+      </c>
+      <c r="F140" t="s">
+        <v>9</v>
+      </c>
+      <c r="G140">
+        <v>23561</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A141">
+        <v>140</v>
+      </c>
+      <c r="B141" s="3">
+        <v>42986</v>
+      </c>
+      <c r="C141" t="s">
+        <v>5</v>
+      </c>
+      <c r="D141" t="s">
+        <v>6</v>
+      </c>
+      <c r="E141">
+        <v>0</v>
+      </c>
+      <c r="F141" t="s">
+        <v>9</v>
+      </c>
+      <c r="G141">
+        <v>30056</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A142">
+        <v>141</v>
+      </c>
+      <c r="B142" s="3">
+        <v>42987</v>
+      </c>
+      <c r="C142" t="s">
+        <v>5</v>
+      </c>
+      <c r="D142" t="s">
+        <v>6</v>
+      </c>
+      <c r="E142">
+        <v>0</v>
+      </c>
+      <c r="F142" t="s">
+        <v>9</v>
+      </c>
+      <c r="G142">
+        <v>34043</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A143">
+        <v>142</v>
+      </c>
+      <c r="B143" s="3">
+        <v>42988</v>
+      </c>
+      <c r="C143" t="s">
+        <v>5</v>
+      </c>
+      <c r="D143" t="s">
+        <v>6</v>
+      </c>
+      <c r="E143">
+        <v>0</v>
+      </c>
+      <c r="F143" t="s">
+        <v>9</v>
+      </c>
+      <c r="G143">
+        <v>34974</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A144">
+        <v>143</v>
+      </c>
+      <c r="B144" s="3">
+        <v>42990</v>
+      </c>
+      <c r="C144" t="s">
+        <v>5</v>
+      </c>
+      <c r="D144" t="s">
+        <v>6</v>
+      </c>
+      <c r="E144">
+        <v>1</v>
+      </c>
+      <c r="F144" t="s">
+        <v>20</v>
+      </c>
+      <c r="G144">
+        <v>22769</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A145">
+        <v>144</v>
+      </c>
+      <c r="B145" s="3">
+        <v>42991</v>
+      </c>
+      <c r="C145" t="s">
+        <v>5</v>
+      </c>
+      <c r="D145" t="s">
+        <v>6</v>
+      </c>
+      <c r="E145">
+        <v>1</v>
+      </c>
+      <c r="F145" t="s">
+        <v>20</v>
+      </c>
+      <c r="G145">
+        <v>24850</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A146">
+        <v>145</v>
+      </c>
+      <c r="B146" s="3">
+        <v>42992</v>
+      </c>
+      <c r="C146" t="s">
+        <v>5</v>
+      </c>
+      <c r="D146" t="s">
+        <v>6</v>
+      </c>
+      <c r="E146">
+        <v>1</v>
+      </c>
+      <c r="F146" t="s">
+        <v>20</v>
+      </c>
+      <c r="G146">
+        <v>25192</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A147">
+        <v>146</v>
+      </c>
+      <c r="B147" s="3">
+        <v>42993</v>
+      </c>
+      <c r="C147" t="s">
+        <v>5</v>
+      </c>
+      <c r="D147" t="s">
+        <v>6</v>
+      </c>
+      <c r="E147">
+        <v>0</v>
+      </c>
+      <c r="F147" t="s">
+        <v>11</v>
+      </c>
+      <c r="G147">
+        <v>29402</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A148">
+        <v>147</v>
+      </c>
+      <c r="B148" s="3">
+        <v>42994</v>
+      </c>
+      <c r="C148" t="s">
+        <v>5</v>
+      </c>
+      <c r="D148" t="s">
+        <v>6</v>
+      </c>
+      <c r="E148">
+        <v>0</v>
+      </c>
+      <c r="F148" t="s">
+        <v>11</v>
+      </c>
+      <c r="G148">
+        <v>37846</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A149">
+        <v>148</v>
+      </c>
+      <c r="B149" s="3">
+        <v>42995</v>
+      </c>
+      <c r="C149" t="s">
+        <v>5</v>
+      </c>
+      <c r="D149" t="s">
+        <v>6</v>
+      </c>
+      <c r="E149">
+        <v>0</v>
+      </c>
+      <c r="F149" t="s">
+        <v>11</v>
+      </c>
+      <c r="G149">
+        <v>32785</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A150">
+        <v>149</v>
+      </c>
+      <c r="B150" s="3">
+        <v>42997</v>
+      </c>
+      <c r="C150" t="s">
+        <v>5</v>
+      </c>
+      <c r="D150" t="s">
+        <v>6</v>
+      </c>
+      <c r="E150">
+        <v>0</v>
+      </c>
+      <c r="F150" t="s">
+        <v>20</v>
+      </c>
+      <c r="G150">
+        <v>26709</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A151">
+        <v>150</v>
+      </c>
+      <c r="B151" s="3">
+        <v>42998</v>
+      </c>
+      <c r="C151" t="s">
+        <v>5</v>
+      </c>
+      <c r="D151" t="s">
+        <v>6</v>
+      </c>
+      <c r="E151">
+        <v>0</v>
+      </c>
+      <c r="F151" t="s">
+        <v>20</v>
+      </c>
+      <c r="G151">
+        <v>25054</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A152">
+        <v>151</v>
+      </c>
+      <c r="B152" s="3">
+        <v>42999</v>
+      </c>
+      <c r="C152" t="s">
+        <v>5</v>
+      </c>
+      <c r="D152" t="s">
+        <v>6</v>
+      </c>
+      <c r="E152">
+        <v>0</v>
+      </c>
+      <c r="F152" t="s">
+        <v>20</v>
+      </c>
+      <c r="G152">
+        <v>32702</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A153">
+        <v>152</v>
+      </c>
+      <c r="B153" s="3">
+        <v>43000</v>
+      </c>
+      <c r="C153" t="s">
+        <v>5</v>
+      </c>
+      <c r="D153" t="s">
+        <v>6</v>
+      </c>
+      <c r="E153">
+        <v>0</v>
+      </c>
+      <c r="F153" t="s">
+        <v>7</v>
+      </c>
+      <c r="G153">
+        <v>33702</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A154">
+        <v>153</v>
+      </c>
+      <c r="B154" s="3">
+        <v>43001</v>
+      </c>
+      <c r="C154" t="s">
+        <v>5</v>
+      </c>
+      <c r="D154" t="s">
+        <v>6</v>
+      </c>
+      <c r="E154">
+        <v>0</v>
+      </c>
+      <c r="F154" t="s">
+        <v>7</v>
+      </c>
+      <c r="G154">
+        <v>39809</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A155">
+        <v>154</v>
+      </c>
+      <c r="B155" s="3">
+        <v>43002</v>
+      </c>
+      <c r="C155" t="s">
+        <v>5</v>
+      </c>
+      <c r="D155" t="s">
+        <v>6</v>
+      </c>
+      <c r="E155">
+        <v>0</v>
+      </c>
+      <c r="F155" t="s">
+        <v>7</v>
+      </c>
+      <c r="G155">
+        <v>33183</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A156">
+        <v>155</v>
+      </c>
+      <c r="B156" s="3">
+        <v>43003</v>
+      </c>
+      <c r="C156" t="s">
+        <v>5</v>
+      </c>
+      <c r="D156" t="s">
+        <v>6</v>
+      </c>
+      <c r="E156">
+        <v>1</v>
+      </c>
+      <c r="F156" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A157">
+        <v>156</v>
+      </c>
+      <c r="B157" s="3">
+        <v>43003</v>
+      </c>
+      <c r="C157" t="s">
+        <v>5</v>
+      </c>
+      <c r="D157" t="s">
+        <v>6</v>
+      </c>
+      <c r="E157">
+        <v>1</v>
+      </c>
+      <c r="F157" t="s">
+        <v>11</v>
+      </c>
+      <c r="G157">
+        <v>21698</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A158">
+        <v>157</v>
+      </c>
+      <c r="B158" s="3">
+        <v>43004</v>
+      </c>
+      <c r="C158" t="s">
+        <v>5</v>
+      </c>
+      <c r="D158" t="s">
+        <v>6</v>
+      </c>
+      <c r="E158">
+        <v>1</v>
+      </c>
+      <c r="F158" t="s">
+        <v>11</v>
+      </c>
+      <c r="G158">
+        <v>21938</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A159">
+        <v>158</v>
+      </c>
+      <c r="B159" s="3">
+        <v>43005</v>
+      </c>
+      <c r="C159" t="s">
+        <v>5</v>
+      </c>
+      <c r="D159" t="s">
+        <v>6</v>
+      </c>
+      <c r="E159">
+        <v>1</v>
+      </c>
+      <c r="F159" t="s">
+        <v>11</v>
+      </c>
+      <c r="G159">
+        <v>28617</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A160">
+        <v>159</v>
+      </c>
+      <c r="B160" s="3">
+        <v>43006</v>
+      </c>
+      <c r="C160" t="s">
+        <v>5</v>
+      </c>
+      <c r="D160" t="s">
+        <v>6</v>
+      </c>
+      <c r="E160">
+        <v>1</v>
+      </c>
+      <c r="F160" t="s">
+        <v>9</v>
+      </c>
+      <c r="G160">
+        <v>17305</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A161">
+        <v>160</v>
+      </c>
+      <c r="B161" s="3">
+        <v>43007</v>
+      </c>
+      <c r="C161" t="s">
+        <v>5</v>
+      </c>
+      <c r="D161" t="s">
+        <v>6</v>
+      </c>
+      <c r="E161">
+        <v>1</v>
+      </c>
+      <c r="F161" t="s">
+        <v>9</v>
+      </c>
+      <c r="G161">
+        <v>19527</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A162">
+        <v>161</v>
+      </c>
+      <c r="B162" s="3">
+        <v>43008</v>
+      </c>
+      <c r="C162" t="s">
+        <v>5</v>
+      </c>
+      <c r="D162" t="s">
+        <v>6</v>
+      </c>
+      <c r="E162">
+        <v>1</v>
+      </c>
+      <c r="F162" t="s">
+        <v>9</v>
+      </c>
+      <c r="G162">
+        <v>25264</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A163">
+        <v>162</v>
+      </c>
+      <c r="B163" s="3">
+        <v>43009</v>
+      </c>
+      <c r="C163" t="s">
+        <v>5</v>
+      </c>
+      <c r="D163" t="s">
+        <v>6</v>
+      </c>
+      <c r="E163">
+        <v>1</v>
+      </c>
+      <c r="F163" t="s">
+        <v>9</v>
+      </c>
+      <c r="G163">
+        <v>25222</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{047E421C-63B6-449C-8FED-7E11879432CD}">
   <dimension ref="A1:A2"/>
   <sheetViews>
